--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_10_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666781.161031133</v>
+        <v>2666032.023825606</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,55 +750,55 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,49 +841,49 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.056421089299217</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.056421089299329</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.876045741711437</v>
+        <v>3.334980354192819</v>
       </c>
       <c r="H7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,55 +1151,55 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="Y9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,61 +1300,61 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S10" t="n">
+      <c r="X10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>252.1229555799666</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0721555371689</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.2651596581974</v>
+        <v>81.23036469348196</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.1971217109847</v>
       </c>
       <c r="H11" t="n">
-        <v>203.7972652807861</v>
+        <v>203.7972652807862</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>90.31928412853175</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>120.6951884466716</v>
       </c>
       <c r="V11" t="n">
-        <v>197.1413723866208</v>
+        <v>197.1413723866209</v>
       </c>
       <c r="W11" t="n">
-        <v>218.6300826338989</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>93.09067875278718</v>
+        <v>239.120214594955</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.6270525725395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.92229756635325</v>
+        <v>35.92229756635334</v>
       </c>
       <c r="C12" t="n">
-        <v>42.09761290480165</v>
+        <v>42.09761290480174</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>16.83417948112475</v>
       </c>
       <c r="E12" t="n">
-        <v>27.03419437188685</v>
+        <v>27.03419437188694</v>
       </c>
       <c r="F12" t="n">
-        <v>14.45832630986979</v>
+        <v>14.45832630986988</v>
       </c>
       <c r="G12" t="n">
-        <v>6.467927342848523</v>
+        <v>6.467927342848609</v>
       </c>
       <c r="H12" t="n">
-        <v>99.29158019123797</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S12" t="n">
-        <v>36.15552920650192</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T12" t="n">
-        <v>68.48690079480167</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U12" t="n">
-        <v>95.31308127793126</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>121.0840970774056</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>90.7306964691747</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.22109409842321</v>
+        <v>49.22109409842329</v>
       </c>
       <c r="C13" t="n">
-        <v>36.63593501511374</v>
+        <v>36.63593501511383</v>
       </c>
       <c r="D13" t="n">
-        <v>18.00458693469827</v>
+        <v>18.00458693469835</v>
       </c>
       <c r="E13" t="n">
-        <v>15.82307656305508</v>
+        <v>15.82307656305517</v>
       </c>
       <c r="F13" t="n">
-        <v>14.81016193941716</v>
+        <v>14.81016193941724</v>
       </c>
       <c r="G13" t="n">
-        <v>37.15817455394611</v>
+        <v>37.1581745539462</v>
       </c>
       <c r="H13" t="n">
-        <v>29.64322724995649</v>
+        <v>29.64322724995658</v>
       </c>
       <c r="I13" t="n">
-        <v>18.16588767044211</v>
+        <v>18.1658876704422</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.70423262039298</v>
+        <v>36.70423262039306</v>
       </c>
       <c r="S13" t="n">
-        <v>89.53827387932876</v>
+        <v>89.53827387932884</v>
       </c>
       <c r="T13" t="n">
-        <v>96.38650517322812</v>
+        <v>96.3865051732282</v>
       </c>
       <c r="U13" t="n">
-        <v>155.6960386154678</v>
+        <v>155.6960386154679</v>
       </c>
       <c r="V13" t="n">
-        <v>121.5267572403139</v>
+        <v>121.526757240314</v>
       </c>
       <c r="W13" t="n">
-        <v>155.9121122530769</v>
+        <v>155.912112253077</v>
       </c>
       <c r="X13" t="n">
-        <v>95.09876930552306</v>
+        <v>95.09876930552315</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.9737672685807</v>
+        <v>87.97376726858079</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>252.1229555799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>234.6620056874934</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0721555371689</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>251.3194839887477</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>266.8520365096765</v>
+        <v>108.7003858847431</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>60.79193593205906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.13552999373049</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90.31928412853162</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>197.1413723866208</v>
       </c>
       <c r="W14" t="n">
-        <v>218.630082633899</v>
+        <v>218.6300826338989</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>239.1202145949549</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.6270525725395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.1458004315355</v>
+        <v>35.92229756635322</v>
       </c>
       <c r="C15" t="n">
-        <v>42.09761290480168</v>
+        <v>42.09761290480162</v>
       </c>
       <c r="D15" t="n">
-        <v>16.83417948112469</v>
+        <v>32.40277683033663</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>27.03419437188683</v>
       </c>
       <c r="F15" t="n">
-        <v>14.45832630986982</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0788134263626</v>
+        <v>6.467927342848495</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S15" t="n">
-        <v>36.15552920650195</v>
+        <v>36.15552920650189</v>
       </c>
       <c r="T15" t="n">
-        <v>68.4869007948017</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U15" t="n">
-        <v>95.31308127793129</v>
+        <v>95.31308127793123</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>102.1897010659112</v>
       </c>
       <c r="W15" t="n">
-        <v>121.0840970774055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>75.16209911996341</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.22109409842324</v>
+        <v>49.22109409842318</v>
       </c>
       <c r="C16" t="n">
-        <v>36.63593501511377</v>
+        <v>36.63593501511372</v>
       </c>
       <c r="D16" t="n">
-        <v>18.0045869346983</v>
+        <v>18.00458693469824</v>
       </c>
       <c r="E16" t="n">
-        <v>15.82307656305511</v>
+        <v>15.82307656305505</v>
       </c>
       <c r="F16" t="n">
-        <v>14.81016193941718</v>
+        <v>14.81016193941713</v>
       </c>
       <c r="G16" t="n">
-        <v>37.15817455394614</v>
+        <v>37.15817455394608</v>
       </c>
       <c r="H16" t="n">
-        <v>29.64322724995652</v>
+        <v>29.64322724995646</v>
       </c>
       <c r="I16" t="n">
-        <v>18.16588767044214</v>
+        <v>18.16588767044209</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.70423262039301</v>
+        <v>36.70423262039295</v>
       </c>
       <c r="S16" t="n">
-        <v>89.53827387932878</v>
+        <v>89.53827387932873</v>
       </c>
       <c r="T16" t="n">
-        <v>96.38650517322814</v>
+        <v>96.38650517322809</v>
       </c>
       <c r="U16" t="n">
         <v>155.6960386154678</v>
@@ -1828,10 +1828,10 @@
         <v>155.9121122530769</v>
       </c>
       <c r="X16" t="n">
-        <v>95.09876930552309</v>
+        <v>95.09876930552304</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.97376726858073</v>
+        <v>87.97376726858067</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.7040979752971</v>
+        <v>144.7040979752972</v>
       </c>
       <c r="C17" t="n">
         <v>127.2431480828241</v>
       </c>
       <c r="D17" t="n">
-        <v>116.6532979324995</v>
+        <v>116.6532979324996</v>
       </c>
       <c r="E17" t="n">
-        <v>143.9006263840783</v>
+        <v>143.9006263840784</v>
       </c>
       <c r="F17" t="n">
         <v>168.846302053528</v>
       </c>
       <c r="G17" t="n">
-        <v>176.7782641063152</v>
+        <v>176.7782641063153</v>
       </c>
       <c r="H17" t="n">
-        <v>96.37840767611672</v>
+        <v>96.37840767611678</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.27633084200212</v>
+        <v>13.27633084200218</v>
       </c>
       <c r="V17" t="n">
-        <v>89.72251478195145</v>
+        <v>89.7225147819515</v>
       </c>
       <c r="W17" t="n">
         <v>111.2112250292296</v>
@@ -1910,7 +1910,7 @@
         <v>131.7013569902856</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.2081949678701</v>
+        <v>148.2081949678702</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T18" t="n">
-        <v>146.0019787424493</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U18" t="n">
         <v>225.9239673614453</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>13.66523947273615</v>
+        <v>120.5746029837923</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>228.126006615082</v>
+        <v>48.27718101079847</v>
       </c>
       <c r="V19" t="n">
-        <v>14.10789963564454</v>
+        <v>193.956725239928</v>
       </c>
       <c r="W19" t="n">
-        <v>48.49325464840754</v>
+        <v>48.4932546484076</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>144.7040979752972</v>
       </c>
       <c r="C20" t="n">
-        <v>127.2431480828242</v>
+        <v>127.2431480828241</v>
       </c>
       <c r="D20" t="n">
-        <v>116.653297932499</v>
+        <v>116.6532979324996</v>
       </c>
       <c r="E20" t="n">
         <v>143.9006263840784</v>
       </c>
       <c r="F20" t="n">
-        <v>168.8463020535281</v>
+        <v>168.846302053528</v>
       </c>
       <c r="G20" t="n">
         <v>176.7782641063153</v>
       </c>
       <c r="H20" t="n">
-        <v>96.37840767611681</v>
+        <v>96.37840767611678</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.27633084200221</v>
+        <v>13.27633084200218</v>
       </c>
       <c r="V20" t="n">
-        <v>89.72251478195153</v>
+        <v>89.7225147819515</v>
       </c>
       <c r="W20" t="n">
         <v>111.2112250292296</v>
       </c>
       <c r="X20" t="n">
-        <v>131.7013569902857</v>
+        <v>131.7013569902856</v>
       </c>
       <c r="Y20" t="n">
         <v>148.2081949678702</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45.26801542338966</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S21" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0977868783158</v>
@@ -2217,16 +2217,16 @@
         <v>225.9239673614453</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>51.44428816111839</v>
       </c>
       <c r="W21" t="n">
-        <v>13.66523947273623</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12.53370690037631</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.3151187039071</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.2771810107985</v>
+        <v>48.27718101079847</v>
       </c>
       <c r="V22" t="n">
-        <v>14.10789963564463</v>
+        <v>14.1078996356446</v>
       </c>
       <c r="W22" t="n">
-        <v>48.49325464840763</v>
+        <v>48.4932546484076</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.8488256042834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>144.7040979752972</v>
       </c>
       <c r="C23" t="n">
-        <v>127.2431480828242</v>
+        <v>127.2431480828241</v>
       </c>
       <c r="D23" t="n">
         <v>116.6532979324996</v>
@@ -2327,13 +2327,13 @@
         <v>143.9006263840784</v>
       </c>
       <c r="F23" t="n">
-        <v>168.8463020535281</v>
+        <v>168.846302053528</v>
       </c>
       <c r="G23" t="n">
         <v>176.7782641063153</v>
       </c>
       <c r="H23" t="n">
-        <v>96.37840767611681</v>
+        <v>96.37840767611678</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.27633084200221</v>
+        <v>13.27633084200218</v>
       </c>
       <c r="V23" t="n">
-        <v>89.72251478195153</v>
+        <v>89.7225147819515</v>
       </c>
       <c r="W23" t="n">
         <v>111.2112250292296</v>
       </c>
       <c r="X23" t="n">
-        <v>131.7013569902857</v>
+        <v>131.7013569902856</v>
       </c>
       <c r="Y23" t="n">
         <v>148.2081949678702</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>63.13343383627618</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I24" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.2053864974277</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>13.6652394727362</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.2771810107985</v>
+        <v>228.1260066150818</v>
       </c>
       <c r="V25" t="n">
-        <v>14.10789963564463</v>
+        <v>14.1078996356446</v>
       </c>
       <c r="W25" t="n">
-        <v>228.342080252691</v>
+        <v>48.4932546484076</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>183.9997107573978</v>
       </c>
       <c r="I26" t="n">
-        <v>40.99438140867085</v>
+        <v>40.99438140867082</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.33797547034226</v>
+        <v>47.33797547034223</v>
       </c>
       <c r="T26" t="n">
-        <v>70.52172960514341</v>
+        <v>70.52172960514338</v>
       </c>
       <c r="U26" t="n">
-        <v>100.8976339232833</v>
+        <v>100.8976339232832</v>
       </c>
       <c r="V26" t="n">
-        <v>177.3438178632326</v>
+        <v>177.3438178632325</v>
       </c>
       <c r="W26" t="n">
         <v>198.8325281105107</v>
@@ -2621,7 +2621,7 @@
         <v>219.3226600715667</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.8294980491513</v>
+        <v>235.8294980491512</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.12474304296498</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2646,10 +2646,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>166.766415290016</v>
       </c>
       <c r="T27" t="n">
-        <v>48.68934627141343</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U27" t="n">
         <v>225.9239673614453</v>
       </c>
       <c r="V27" t="n">
-        <v>82.39214654252294</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.36454459657514</v>
+        <v>198.5274598457491</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.087834190546</v>
+        <v>55.274255170402</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.42353957503497</v>
+        <v>29.42353957503494</v>
       </c>
       <c r="C28" t="n">
-        <v>16.8383804917255</v>
+        <v>16.83838049172547</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.36062003055787</v>
+        <v>17.36062003055784</v>
       </c>
       <c r="H28" t="n">
-        <v>9.845672726568248</v>
+        <v>9.845672726568219</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.90667809700474</v>
+        <v>16.90667809700471</v>
       </c>
       <c r="S28" t="n">
-        <v>69.74071935594051</v>
+        <v>69.74071935594048</v>
       </c>
       <c r="T28" t="n">
-        <v>76.58895064983987</v>
+        <v>76.58895064983984</v>
       </c>
       <c r="U28" t="n">
         <v>135.8984840920795</v>
       </c>
       <c r="V28" t="n">
-        <v>101.7292027169257</v>
+        <v>101.7292027169256</v>
       </c>
       <c r="W28" t="n">
-        <v>136.1145577296887</v>
+        <v>136.1145577296886</v>
       </c>
       <c r="X28" t="n">
-        <v>75.30121478213482</v>
+        <v>75.30121478213479</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.17621274519246</v>
+        <v>68.17621274519243</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.3254010565782</v>
+        <v>232.3254010565783</v>
       </c>
       <c r="C29" t="n">
         <v>214.8644511641052</v>
       </c>
       <c r="D29" t="n">
-        <v>204.2746010137806</v>
+        <v>204.2746010137807</v>
       </c>
       <c r="E29" t="n">
-        <v>231.5219294653594</v>
+        <v>231.5219294653595</v>
       </c>
       <c r="F29" t="n">
         <v>256.4676051348091</v>
       </c>
       <c r="G29" t="n">
-        <v>264.3995671875963</v>
+        <v>264.3995671875964</v>
       </c>
       <c r="H29" t="n">
-        <v>183.9997107573978</v>
+        <v>183.9997107573979</v>
       </c>
       <c r="I29" t="n">
-        <v>40.99438140867085</v>
+        <v>40.99438140867088</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.33797547034227</v>
+        <v>47.3379754703423</v>
       </c>
       <c r="T29" t="n">
-        <v>70.52172960514342</v>
+        <v>70.52172960514345</v>
       </c>
       <c r="U29" t="n">
         <v>100.8976339232833</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>156.9118051208841</v>
       </c>
       <c r="C30" t="n">
-        <v>115.0705180885146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,10 +2880,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S30" t="n">
-        <v>16.35797468311367</v>
+        <v>16.3579746831137</v>
       </c>
       <c r="T30" t="n">
         <v>199.0977868783158</v>
       </c>
       <c r="U30" t="n">
-        <v>75.51552675454302</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>101.2865425540173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.36454459657517</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.42353957503497</v>
+        <v>29.42353957503499</v>
       </c>
       <c r="C31" t="n">
-        <v>16.8383804917255</v>
+        <v>16.83838049172553</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.36062003055787</v>
+        <v>17.3606200305579</v>
       </c>
       <c r="H31" t="n">
-        <v>9.845672726568248</v>
+        <v>9.845672726568276</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.90667809700474</v>
+        <v>16.90667809700476</v>
       </c>
       <c r="S31" t="n">
-        <v>69.74071935594051</v>
+        <v>69.74071935594054</v>
       </c>
       <c r="T31" t="n">
-        <v>76.58895064983987</v>
+        <v>76.5889506498399</v>
       </c>
       <c r="U31" t="n">
-        <v>135.8984840920795</v>
+        <v>135.8984840920796</v>
       </c>
       <c r="V31" t="n">
         <v>101.7292027169257</v>
@@ -3013,10 +3013,10 @@
         <v>136.1145577296887</v>
       </c>
       <c r="X31" t="n">
-        <v>75.30121478213482</v>
+        <v>75.30121478213485</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.17621274519246</v>
+        <v>68.17621274519249</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>181.8195570617777</v>
       </c>
       <c r="I32" t="n">
-        <v>38.81422771305071</v>
+        <v>38.81422771305074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.15782177472212</v>
+        <v>45.15782177472215</v>
       </c>
       <c r="T32" t="n">
-        <v>68.34157590952327</v>
+        <v>68.3415759095233</v>
       </c>
       <c r="U32" t="n">
-        <v>98.71748022766312</v>
+        <v>98.71748022766315</v>
       </c>
       <c r="V32" t="n">
-        <v>175.1636641676124</v>
+        <v>175.1636641676125</v>
       </c>
       <c r="W32" t="n">
-        <v>196.6523744148905</v>
+        <v>196.6523744148906</v>
       </c>
       <c r="X32" t="n">
         <v>217.1425063759466</v>
@@ -3108,19 +3108,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>20.11990468579327</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>142.1839944268957</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S33" t="n">
         <v>166.766415290016</v>
@@ -3162,19 +3162,19 @@
         <v>199.0977868783158</v>
       </c>
       <c r="U33" t="n">
-        <v>73.33537305892288</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V33" t="n">
-        <v>181.7030673364846</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>99.10638885839717</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>53.09410147478189</v>
+        <v>53.09410147478192</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.24338587941483</v>
+        <v>27.24338587941486</v>
       </c>
       <c r="C34" t="n">
-        <v>14.65822679610537</v>
+        <v>14.6582267961054</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.18046633493774</v>
+        <v>15.18046633493776</v>
       </c>
       <c r="H34" t="n">
-        <v>7.665519030948114</v>
+        <v>7.665519030948142</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.7265244013846</v>
+        <v>14.72652440138463</v>
       </c>
       <c r="S34" t="n">
-        <v>67.56056566032038</v>
+        <v>67.56056566032041</v>
       </c>
       <c r="T34" t="n">
-        <v>74.40879695421974</v>
+        <v>74.40879695421977</v>
       </c>
       <c r="U34" t="n">
         <v>133.7183303964594</v>
       </c>
       <c r="V34" t="n">
-        <v>99.54904902130554</v>
+        <v>99.54904902130556</v>
       </c>
       <c r="W34" t="n">
-        <v>133.9344040340685</v>
+        <v>133.9344040340686</v>
       </c>
       <c r="X34" t="n">
-        <v>73.12106108651469</v>
+        <v>73.12106108651471</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.99605904957232</v>
+        <v>65.99605904957235</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.614234839336</v>
+        <v>179.6142348393359</v>
       </c>
       <c r="C35" t="n">
-        <v>162.153284946863</v>
+        <v>162.1532849468629</v>
       </c>
       <c r="D35" t="n">
-        <v>151.5634347965384</v>
+        <v>151.5634347965383</v>
       </c>
       <c r="E35" t="n">
         <v>178.8107632481172</v>
       </c>
       <c r="F35" t="n">
-        <v>203.7564389175669</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G35" t="n">
         <v>211.6884009703541</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.81056338790117</v>
+        <v>17.81056338790111</v>
       </c>
       <c r="U35" t="n">
-        <v>48.18646770604101</v>
+        <v>48.18646770604096</v>
       </c>
       <c r="V35" t="n">
         <v>124.6326516459903</v>
@@ -3329,7 +3329,7 @@
         <v>146.1213618932684</v>
       </c>
       <c r="X35" t="n">
-        <v>166.6114938543245</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y35" t="n">
         <v>183.118331831909</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.27356361606894</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T36" t="n">
         <v>199.0977868783158</v>
       </c>
       <c r="U36" t="n">
-        <v>22.80436053730077</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>145.5908919525835</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.563088953159792</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.02955313869828</v>
+        <v>17.02955313869822</v>
       </c>
       <c r="T37" t="n">
-        <v>23.87778443259763</v>
+        <v>23.87778443259758</v>
       </c>
       <c r="U37" t="n">
-        <v>83.1873178748373</v>
+        <v>83.18731787483725</v>
       </c>
       <c r="V37" t="n">
-        <v>49.01803649968343</v>
+        <v>49.01803649968338</v>
       </c>
       <c r="W37" t="n">
-        <v>83.40339151244643</v>
+        <v>83.40339151244638</v>
       </c>
       <c r="X37" t="n">
-        <v>22.59004856489258</v>
+        <v>22.59004856489253</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.46504652795022</v>
+        <v>15.46504652795016</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>178.8107632481172</v>
       </c>
       <c r="F38" t="n">
-        <v>203.7564389175669</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G38" t="n">
         <v>211.6884009703541</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.81056338790117</v>
+        <v>17.81056338790114</v>
       </c>
       <c r="U38" t="n">
-        <v>48.18646770604101</v>
+        <v>48.18646770604099</v>
       </c>
       <c r="V38" t="n">
         <v>124.6326516459903</v>
@@ -3566,7 +3566,7 @@
         <v>146.1213618932684</v>
       </c>
       <c r="X38" t="n">
-        <v>166.6114938543245</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y38" t="n">
         <v>183.118331831909</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S39" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U39" t="n">
         <v>225.9239673614453</v>
       </c>
       <c r="V39" t="n">
-        <v>205.1830971269798</v>
+        <v>44.47549862761714</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.02955313869828</v>
+        <v>17.02955313869825</v>
       </c>
       <c r="T40" t="n">
-        <v>23.87778443259763</v>
+        <v>23.8777844325976</v>
       </c>
       <c r="U40" t="n">
-        <v>83.1873178748373</v>
+        <v>83.18731787483728</v>
       </c>
       <c r="V40" t="n">
-        <v>49.01803649968343</v>
+        <v>49.0180364996834</v>
       </c>
       <c r="W40" t="n">
-        <v>83.40339151244643</v>
+        <v>83.4033915124464</v>
       </c>
       <c r="X40" t="n">
-        <v>22.59004856489258</v>
+        <v>22.59004856489256</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.46504652795022</v>
+        <v>15.46504652795019</v>
       </c>
     </row>
     <row r="41">
@@ -3822,10 +3822,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>10.99505613514281</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0977868783158</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.563088953159735</v>
+        <v>187.764072452081</v>
       </c>
     </row>
     <row r="43">
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>60.69267967503399</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S45" t="n">
         <v>166.766415290016</v>
@@ -4110,7 +4110,7 @@
         <v>199.0977868783158</v>
       </c>
       <c r="U45" t="n">
-        <v>171.917189449</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>2.563088953159792</v>
       </c>
     </row>
     <row r="46">
@@ -4340,34 +4340,34 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
         <v>14.44108515774386</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D3" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E3" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
         <v>0.5500836593369149</v>
@@ -4413,16 +4413,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T3" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.6131814684388</v>
-      </c>
       <c r="U3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,7 +4495,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
@@ -4504,34 +4504,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="E5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495584408540386</v>
+        <v>13.61318146843846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235105</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631116</v>
       </c>
       <c r="L5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792533</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792533</v>
       </c>
       <c r="N5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221954</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764193</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="C6" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="D6" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="E6" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="F6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="G6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="H6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.357368943631116</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.357368943631116</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631116</v>
       </c>
       <c r="O6" t="n">
-        <v>20.97193951221988</v>
+        <v>14.16465422792533</v>
       </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255108</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>20.55868221764193</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.61318146843858</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="X6" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540263</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540263</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
       <c r="C7" t="n">
-        <v>27.50418296684575</v>
+        <v>3.918750683774097</v>
       </c>
       <c r="D7" t="n">
-        <v>27.50418296684575</v>
+        <v>3.918750683774097</v>
       </c>
       <c r="E7" t="n">
-        <v>20.55868221764227</v>
+        <v>3.918750683774097</v>
       </c>
       <c r="F7" t="n">
-        <v>20.55868221764227</v>
+        <v>3.918750683774097</v>
       </c>
       <c r="G7" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="H7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369058</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962663</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>13.88961239825687</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.69689768255108</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684529</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138417</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218081</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218081</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218081</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218081</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
       <c r="V7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
       <c r="W7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
       <c r="X7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297745</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.08434099311135</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,19 +4805,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4835,10 +4835,10 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
         <v>45.75363943919166</v>
@@ -4847,7 +4847,7 @@
         <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
         <v>1.224219001210804</v>
@@ -4884,10 +4884,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M9" t="n">
         <v>30.9115297805728</v>
@@ -4911,22 +4911,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V9" t="n">
-        <v>32.13884024390788</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W9" t="n">
-        <v>32.13884024390788</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="X9" t="n">
         <v>32.13884024390788</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
         <v>1.224219001210804</v>
@@ -4984,28 +4984,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S10" t="n">
-        <v>30.29632881784312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T10" t="n">
-        <v>14.83901819649459</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U10" t="n">
-        <v>14.83901819649459</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V10" t="n">
-        <v>14.83901819649459</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W10" t="n">
-        <v>14.83901819649459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X10" t="n">
-        <v>14.83901819649459</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.83901819649459</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>741.5217111967318</v>
+        <v>605.2491568624901</v>
       </c>
       <c r="C11" t="n">
-        <v>741.5217111967318</v>
+        <v>605.2491568624901</v>
       </c>
       <c r="D11" t="n">
-        <v>515.1862005531268</v>
+        <v>605.2491568624901</v>
       </c>
       <c r="E11" t="n">
-        <v>515.1862005531268</v>
+        <v>605.2491568624901</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1304837266648</v>
+        <v>523.1982834347305</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1304837266648</v>
+        <v>236.130483726665</v>
       </c>
       <c r="H11" t="n">
         <v>30.27466021071941</v>
@@ -5039,52 +5039,52 @@
         <v>30.27466021071941</v>
       </c>
       <c r="J11" t="n">
-        <v>60.01453471024354</v>
+        <v>60.01453471024379</v>
       </c>
       <c r="K11" t="n">
-        <v>225.3317015655475</v>
+        <v>225.3317015655478</v>
       </c>
       <c r="L11" t="n">
-        <v>482.698892935633</v>
+        <v>482.6988929356334</v>
       </c>
       <c r="M11" t="n">
-        <v>785.6760281566371</v>
+        <v>785.6760281566375</v>
       </c>
       <c r="N11" t="n">
         <v>1078.923652632547</v>
       </c>
       <c r="O11" t="n">
-        <v>1310.641431070883</v>
+        <v>1310.641431070884</v>
       </c>
       <c r="P11" t="n">
         <v>1470.732811080195</v>
       </c>
       <c r="Q11" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R11" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S11" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="T11" t="n">
-        <v>1513.73301053597</v>
+        <v>1422.501410406141</v>
       </c>
       <c r="U11" t="n">
-        <v>1513.73301053597</v>
+        <v>1300.587078641826</v>
       </c>
       <c r="V11" t="n">
-        <v>1314.600311155545</v>
+        <v>1101.454379261401</v>
       </c>
       <c r="W11" t="n">
-        <v>1093.761843848577</v>
+        <v>1101.454379261401</v>
       </c>
       <c r="X11" t="n">
-        <v>999.7308552093979</v>
+        <v>859.9188089634664</v>
       </c>
       <c r="Y11" t="n">
-        <v>741.5217111967318</v>
+        <v>859.9188089634664</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.4713336301978</v>
+        <v>138.2466202213577</v>
       </c>
       <c r="C12" t="n">
-        <v>327.9484923122163</v>
+        <v>95.72377890337616</v>
       </c>
       <c r="D12" t="n">
-        <v>179.014082650965</v>
+        <v>78.71955720527035</v>
       </c>
       <c r="E12" t="n">
-        <v>151.7068156086551</v>
+        <v>51.41229016296031</v>
       </c>
       <c r="F12" t="n">
-        <v>137.1024455986856</v>
+        <v>36.80792015299074</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5691856564143</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H12" t="n">
         <v>30.27466021071941</v>
@@ -5121,49 +5121,49 @@
         <v>30.27466021071941</v>
       </c>
       <c r="K12" t="n">
-        <v>197.9486303770582</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="L12" t="n">
-        <v>484.8113718056474</v>
+        <v>317.1374016393086</v>
       </c>
       <c r="M12" t="n">
-        <v>859.4602919133</v>
+        <v>691.7863217469613</v>
       </c>
       <c r="N12" t="n">
-        <v>1234.109212020953</v>
+        <v>1066.435241854614</v>
       </c>
       <c r="O12" t="n">
-        <v>1410.887144208375</v>
+        <v>1377.538611099395</v>
       </c>
       <c r="P12" t="n">
-        <v>1410.887144208375</v>
+        <v>1410.887144208376</v>
       </c>
       <c r="Q12" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R12" t="n">
-        <v>1513.73301053597</v>
+        <v>1429.16434099857</v>
       </c>
       <c r="S12" t="n">
-        <v>1477.212273963746</v>
+        <v>1260.7134164632</v>
       </c>
       <c r="T12" t="n">
-        <v>1408.033586292229</v>
+        <v>1059.604540828538</v>
       </c>
       <c r="U12" t="n">
-        <v>1311.757746617551</v>
+        <v>831.3985131907145</v>
       </c>
       <c r="V12" t="n">
-        <v>1076.605638385809</v>
+        <v>596.2464049589719</v>
       </c>
       <c r="W12" t="n">
-        <v>822.368281657607</v>
+        <v>473.9392361939157</v>
       </c>
       <c r="X12" t="n">
-        <v>614.5167814520742</v>
+        <v>382.2920680432342</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.7564826871202</v>
+        <v>174.5317692782803</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.2353167022638</v>
+        <v>202.2353167022644</v>
       </c>
       <c r="C13" t="n">
-        <v>165.2293217375025</v>
+        <v>165.229321737503</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0428702883123</v>
+        <v>147.0428702883127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0599646690647</v>
+        <v>131.0599646690651</v>
       </c>
       <c r="F13" t="n">
-        <v>116.1002051342999</v>
+        <v>116.1002051343002</v>
       </c>
       <c r="G13" t="n">
-        <v>78.56669548384932</v>
+        <v>78.56669548384949</v>
       </c>
       <c r="H13" t="n">
-        <v>48.62404169601447</v>
+        <v>48.62404169601457</v>
       </c>
       <c r="I13" t="n">
         <v>30.27466021071941</v>
       </c>
       <c r="J13" t="n">
-        <v>82.68660615674435</v>
+        <v>82.68660615674428</v>
       </c>
       <c r="K13" t="n">
-        <v>215.4696777610534</v>
+        <v>215.4696777610532</v>
       </c>
       <c r="L13" t="n">
-        <v>289.4347914679627</v>
+        <v>404.7519088603387</v>
       </c>
       <c r="M13" t="n">
-        <v>492.366507438467</v>
+        <v>607.683624830843</v>
       </c>
       <c r="N13" t="n">
-        <v>698.9821557917007</v>
+        <v>814.2992731840767</v>
       </c>
       <c r="O13" t="n">
-        <v>883.6797401160491</v>
+        <v>883.6797401160505</v>
       </c>
       <c r="P13" t="n">
-        <v>1036.861950988456</v>
+        <v>1036.861950988457</v>
       </c>
       <c r="Q13" t="n">
-        <v>1099.263145444017</v>
+        <v>1099.263145444018</v>
       </c>
       <c r="R13" t="n">
-        <v>1062.188162999175</v>
+        <v>1062.188162999177</v>
       </c>
       <c r="S13" t="n">
-        <v>971.7454621109646</v>
+        <v>971.7454621109657</v>
       </c>
       <c r="T13" t="n">
-        <v>874.3853558753806</v>
+        <v>874.3853558753817</v>
       </c>
       <c r="U13" t="n">
-        <v>717.1166300011707</v>
+        <v>717.1166300011718</v>
       </c>
       <c r="V13" t="n">
-        <v>594.3623297584294</v>
+        <v>594.3623297584303</v>
       </c>
       <c r="W13" t="n">
-        <v>436.8753476846143</v>
+        <v>436.8753476846151</v>
       </c>
       <c r="X13" t="n">
-        <v>340.8159847497425</v>
+        <v>340.8159847497433</v>
       </c>
       <c r="Y13" t="n">
-        <v>251.953593569358</v>
+        <v>251.9535935693586</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>780.0157471153591</v>
+        <v>438.5113546595029</v>
       </c>
       <c r="C14" t="n">
-        <v>780.0157471153591</v>
+        <v>201.4790256822367</v>
       </c>
       <c r="D14" t="n">
-        <v>553.6802364717543</v>
+        <v>201.4790256822367</v>
       </c>
       <c r="E14" t="n">
-        <v>299.8221718366552</v>
+        <v>201.4790256822367</v>
       </c>
       <c r="F14" t="n">
-        <v>299.8221718366552</v>
+        <v>201.4790256822367</v>
       </c>
       <c r="G14" t="n">
-        <v>30.2746602107194</v>
+        <v>91.68065610168817</v>
       </c>
       <c r="H14" t="n">
-        <v>30.2746602107194</v>
+        <v>91.68065610168817</v>
       </c>
       <c r="I14" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J14" t="n">
-        <v>60.01453471024351</v>
+        <v>60.01453471024365</v>
       </c>
       <c r="K14" t="n">
-        <v>225.3317015655475</v>
+        <v>225.3317015655477</v>
       </c>
       <c r="L14" t="n">
-        <v>482.6988929356331</v>
+        <v>482.6988929356335</v>
       </c>
       <c r="M14" t="n">
-        <v>785.6760281566371</v>
+        <v>785.6760281566375</v>
       </c>
       <c r="N14" t="n">
         <v>1078.923652632547</v>
       </c>
       <c r="O14" t="n">
-        <v>1310.641431070883</v>
+        <v>1310.641431070884</v>
       </c>
       <c r="P14" t="n">
         <v>1470.732811080195</v>
       </c>
       <c r="Q14" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R14" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S14" t="n">
-        <v>1513.73301053597</v>
+        <v>1445.919343875637</v>
       </c>
       <c r="T14" t="n">
-        <v>1513.73301053597</v>
+        <v>1354.687743745807</v>
       </c>
       <c r="U14" t="n">
-        <v>1513.73301053597</v>
+        <v>1354.687743745807</v>
       </c>
       <c r="V14" t="n">
-        <v>1513.73301053597</v>
+        <v>1155.555044365382</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.894543229002</v>
+        <v>934.7165770584133</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.894543229002</v>
+        <v>693.1810067604791</v>
       </c>
       <c r="Y14" t="n">
-        <v>1034.685399216335</v>
+        <v>693.1810067604791</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>512.8938278744863</v>
+        <v>285.9026640927976</v>
       </c>
       <c r="C15" t="n">
-        <v>470.3709865565048</v>
+        <v>243.3798227748162</v>
       </c>
       <c r="D15" t="n">
-        <v>453.3667648583991</v>
+        <v>210.6497451684156</v>
       </c>
       <c r="E15" t="n">
-        <v>294.1293098529435</v>
+        <v>183.3424781261056</v>
       </c>
       <c r="F15" t="n">
-        <v>279.524939842974</v>
+        <v>36.80792015299062</v>
       </c>
       <c r="G15" t="n">
-        <v>141.0614919375573</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H15" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I15" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J15" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="K15" t="n">
-        <v>197.9486303770581</v>
+        <v>197.9486303770582</v>
       </c>
       <c r="L15" t="n">
-        <v>484.8113718056474</v>
+        <v>197.9486303770582</v>
       </c>
       <c r="M15" t="n">
-        <v>859.4602919132999</v>
+        <v>572.5975504847108</v>
       </c>
       <c r="N15" t="n">
-        <v>867.09896146454</v>
+        <v>947.2464705923635</v>
       </c>
       <c r="O15" t="n">
-        <v>1178.202330709321</v>
+        <v>1258.349839837145</v>
       </c>
       <c r="P15" t="n">
-        <v>1410.887144208375</v>
+        <v>1410.887144208376</v>
       </c>
       <c r="Q15" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R15" t="n">
-        <v>1513.73301053597</v>
+        <v>1429.16434099857</v>
       </c>
       <c r="S15" t="n">
-        <v>1477.212273963746</v>
+        <v>1392.643604426346</v>
       </c>
       <c r="T15" t="n">
-        <v>1408.033586292229</v>
+        <v>1191.534728791684</v>
       </c>
       <c r="U15" t="n">
-        <v>1311.757746617551</v>
+        <v>1095.258889117006</v>
       </c>
       <c r="V15" t="n">
-        <v>1076.605638385808</v>
+        <v>992.0369688484084</v>
       </c>
       <c r="W15" t="n">
-        <v>954.2984696207523</v>
+        <v>737.7996121202068</v>
       </c>
       <c r="X15" t="n">
-        <v>878.3771573783649</v>
+        <v>529.948111914674</v>
       </c>
       <c r="Y15" t="n">
-        <v>670.6168586134111</v>
+        <v>322.1878131497201</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.235316702264</v>
+        <v>202.2353167022636</v>
       </c>
       <c r="C16" t="n">
-        <v>165.2293217375026</v>
+        <v>165.2293217375023</v>
       </c>
       <c r="D16" t="n">
-        <v>147.0428702883124</v>
+        <v>147.0428702883121</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0599646690648</v>
+        <v>131.0599646690646</v>
       </c>
       <c r="F16" t="n">
-        <v>116.1002051343</v>
+        <v>116.1002051342998</v>
       </c>
       <c r="G16" t="n">
-        <v>78.56669548384937</v>
+        <v>78.56669548384926</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6240416960145</v>
+        <v>48.62404169601445</v>
       </c>
       <c r="I16" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J16" t="n">
-        <v>82.68660615674432</v>
+        <v>82.68660615674439</v>
       </c>
       <c r="K16" t="n">
-        <v>215.4696777610533</v>
+        <v>215.4696777610534</v>
       </c>
       <c r="L16" t="n">
-        <v>404.7519088603389</v>
+        <v>404.7519088603391</v>
       </c>
       <c r="M16" t="n">
-        <v>607.6836248308432</v>
+        <v>554.7677018940273</v>
       </c>
       <c r="N16" t="n">
-        <v>698.9821557917014</v>
+        <v>761.3833502472611</v>
       </c>
       <c r="O16" t="n">
-        <v>883.6797401160497</v>
+        <v>946.0809345716095</v>
       </c>
       <c r="P16" t="n">
-        <v>1036.861950988457</v>
+        <v>1099.263145444016</v>
       </c>
       <c r="Q16" t="n">
-        <v>1099.263145444017</v>
+        <v>1099.263145444016</v>
       </c>
       <c r="R16" t="n">
-        <v>1062.188162999176</v>
+        <v>1062.188162999175</v>
       </c>
       <c r="S16" t="n">
-        <v>971.745462110965</v>
+        <v>971.7454621109641</v>
       </c>
       <c r="T16" t="n">
-        <v>874.385355875381</v>
+        <v>874.3853558753802</v>
       </c>
       <c r="U16" t="n">
-        <v>717.1166300011711</v>
+        <v>717.1166300011704</v>
       </c>
       <c r="V16" t="n">
-        <v>594.3623297584297</v>
+        <v>594.362329758429</v>
       </c>
       <c r="W16" t="n">
-        <v>436.8753476846146</v>
+        <v>436.875347684614</v>
       </c>
       <c r="X16" t="n">
-        <v>340.8159847497428</v>
+        <v>340.8159847497423</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.9535935693582</v>
+        <v>251.9535935693577</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>868.4565250949238</v>
+        <v>868.4565250949232</v>
       </c>
       <c r="C17" t="n">
-        <v>739.9280926880308</v>
+        <v>739.9280926880301</v>
       </c>
       <c r="D17" t="n">
-        <v>622.096478614799</v>
+        <v>622.0964786147983</v>
       </c>
       <c r="E17" t="n">
-        <v>476.7423105500735</v>
+        <v>476.7423105500729</v>
       </c>
       <c r="F17" t="n">
-        <v>306.1904902939846</v>
+        <v>306.1904902939841</v>
       </c>
       <c r="G17" t="n">
         <v>127.6265871562919</v>
       </c>
       <c r="H17" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I17" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J17" t="n">
-        <v>60.01453471024351</v>
+        <v>60.01453471024352</v>
       </c>
       <c r="K17" t="n">
-        <v>225.3317015655475</v>
+        <v>225.3317015655478</v>
       </c>
       <c r="L17" t="n">
-        <v>482.6988929356331</v>
+        <v>482.6988929356334</v>
       </c>
       <c r="M17" t="n">
-        <v>785.6760281566371</v>
+        <v>785.6760281566375</v>
       </c>
       <c r="N17" t="n">
         <v>1078.923652632547</v>
       </c>
       <c r="O17" t="n">
-        <v>1310.641431070883</v>
+        <v>1310.641431070884</v>
       </c>
       <c r="P17" t="n">
         <v>1470.732811080195</v>
       </c>
       <c r="Q17" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R17" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S17" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="T17" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="U17" t="n">
-        <v>1500.322575342028</v>
+        <v>1500.322575342029</v>
       </c>
       <c r="V17" t="n">
         <v>1409.693772531976</v>
@@ -5555,10 +5555,10 @@
         <v>1297.359201795381</v>
       </c>
       <c r="X17" t="n">
-        <v>1164.32752806782</v>
+        <v>1164.327528067819</v>
       </c>
       <c r="Y17" t="n">
-        <v>1014.622280625527</v>
+        <v>1014.622280625526</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>428.4593495042253</v>
+        <v>351.2622474649614</v>
       </c>
       <c r="C18" t="n">
-        <v>428.4593495042253</v>
+        <v>176.8092181838344</v>
       </c>
       <c r="D18" t="n">
-        <v>279.524939842974</v>
+        <v>176.8092181838344</v>
       </c>
       <c r="E18" t="n">
-        <v>279.524939842974</v>
+        <v>176.8092181838344</v>
       </c>
       <c r="F18" t="n">
-        <v>279.524939842974</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="G18" t="n">
-        <v>141.0614919375573</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H18" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I18" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J18" t="n">
-        <v>30.2746602107194</v>
+        <v>54.29414604109614</v>
       </c>
       <c r="K18" t="n">
-        <v>63.62319331969945</v>
+        <v>221.9681162074349</v>
       </c>
       <c r="L18" t="n">
-        <v>350.4859347482887</v>
+        <v>508.8308576360241</v>
       </c>
       <c r="M18" t="n">
-        <v>725.1348548559413</v>
+        <v>883.4797777436768</v>
       </c>
       <c r="N18" t="n">
-        <v>1099.783774963594</v>
+        <v>1258.128697851329</v>
       </c>
       <c r="O18" t="n">
-        <v>1410.887144208375</v>
+        <v>1258.128697851329</v>
       </c>
       <c r="P18" t="n">
-        <v>1410.887144208375</v>
+        <v>1490.813511350383</v>
       </c>
       <c r="Q18" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R18" t="n">
-        <v>1429.16434099857</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S18" t="n">
-        <v>1429.16434099857</v>
+        <v>1345.282086000601</v>
       </c>
       <c r="T18" t="n">
-        <v>1281.687594794075</v>
+        <v>1144.173210365939</v>
       </c>
       <c r="U18" t="n">
-        <v>1053.481567156252</v>
+        <v>915.9671827281149</v>
       </c>
       <c r="V18" t="n">
-        <v>818.3294589245091</v>
+        <v>680.8150744963723</v>
       </c>
       <c r="W18" t="n">
-        <v>804.5261867298261</v>
+        <v>559.0225462299154</v>
       </c>
       <c r="X18" t="n">
-        <v>596.6746865242933</v>
+        <v>559.0225462299154</v>
       </c>
       <c r="Y18" t="n">
-        <v>596.6746865242933</v>
+        <v>351.2622474649614</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="C19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="D19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="E19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="F19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="G19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="K19" t="n">
-        <v>33.75295459234948</v>
+        <v>33.75295459234949</v>
       </c>
       <c r="L19" t="n">
-        <v>93.73040846895617</v>
+        <v>93.73040846895618</v>
       </c>
       <c r="M19" t="n">
         <v>167.3573472167815</v>
@@ -5704,19 +5704,19 @@
         <v>323.9384590987336</v>
       </c>
       <c r="U19" t="n">
-        <v>93.50814938652958</v>
+        <v>275.1736297948968</v>
       </c>
       <c r="V19" t="n">
-        <v>79.25774571416136</v>
+        <v>79.25774571416144</v>
       </c>
       <c r="W19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="X19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>868.4565250949231</v>
+        <v>868.4565250949238</v>
       </c>
       <c r="C20" t="n">
-        <v>739.92809268803</v>
+        <v>739.9280926880308</v>
       </c>
       <c r="D20" t="n">
-        <v>622.0964786147987</v>
+        <v>622.0964786147991</v>
       </c>
       <c r="E20" t="n">
-        <v>476.7423105500731</v>
+        <v>476.7423105500735</v>
       </c>
       <c r="F20" t="n">
-        <v>306.1904902939841</v>
+        <v>306.1904902939846</v>
       </c>
       <c r="G20" t="n">
         <v>127.6265871562919</v>
       </c>
       <c r="H20" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I20" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J20" t="n">
-        <v>60.01453471024351</v>
+        <v>60.01453471024352</v>
       </c>
       <c r="K20" t="n">
         <v>225.3317015655475</v>
       </c>
       <c r="L20" t="n">
-        <v>482.6988929356331</v>
+        <v>482.6988929356334</v>
       </c>
       <c r="M20" t="n">
-        <v>785.6760281566371</v>
+        <v>785.6760281566375</v>
       </c>
       <c r="N20" t="n">
         <v>1078.923652632547</v>
       </c>
       <c r="O20" t="n">
-        <v>1310.641431070883</v>
+        <v>1310.641431070884</v>
       </c>
       <c r="P20" t="n">
         <v>1470.732811080195</v>
       </c>
       <c r="Q20" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R20" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S20" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="T20" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="U20" t="n">
-        <v>1500.322575342028</v>
+        <v>1500.322575342029</v>
       </c>
       <c r="V20" t="n">
-        <v>1409.693772531976</v>
+        <v>1409.693772531977</v>
       </c>
       <c r="W20" t="n">
         <v>1297.359201795381</v>
       </c>
       <c r="X20" t="n">
-        <v>1164.327528067819</v>
+        <v>1164.32752806782</v>
       </c>
       <c r="Y20" t="n">
-        <v>1014.622280625526</v>
+        <v>1014.622280625527</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>667.0118023016888</v>
+        <v>317.6725177773875</v>
       </c>
       <c r="C21" t="n">
-        <v>492.5587730205618</v>
+        <v>317.6725177773875</v>
       </c>
       <c r="D21" t="n">
-        <v>492.5587730205618</v>
+        <v>168.7381081161362</v>
       </c>
       <c r="E21" t="n">
-        <v>333.3213180151063</v>
+        <v>168.7381081161362</v>
       </c>
       <c r="F21" t="n">
-        <v>186.7867600419913</v>
+        <v>168.7381081161362</v>
       </c>
       <c r="G21" t="n">
-        <v>141.0614919375573</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H21" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I21" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J21" t="n">
-        <v>54.29414604109613</v>
+        <v>52.97301741049148</v>
       </c>
       <c r="K21" t="n">
-        <v>54.29414604109613</v>
+        <v>220.6469875768302</v>
       </c>
       <c r="L21" t="n">
-        <v>341.1568874696854</v>
+        <v>220.6469875768302</v>
       </c>
       <c r="M21" t="n">
-        <v>715.805807577338</v>
+        <v>595.2959076844829</v>
       </c>
       <c r="N21" t="n">
-        <v>1090.454727684991</v>
+        <v>969.9448277921356</v>
       </c>
       <c r="O21" t="n">
-        <v>1401.558096929772</v>
+        <v>1281.048197036917</v>
       </c>
       <c r="P21" t="n">
-        <v>1410.887144208375</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="Q21" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R21" t="n">
-        <v>1513.73301053597</v>
+        <v>1429.16434099857</v>
       </c>
       <c r="S21" t="n">
-        <v>1345.2820860006</v>
+        <v>1429.16434099857</v>
       </c>
       <c r="T21" t="n">
-        <v>1144.173210365938</v>
+        <v>1228.055465363908</v>
       </c>
       <c r="U21" t="n">
-        <v>915.9671827281145</v>
+        <v>999.8494377260843</v>
       </c>
       <c r="V21" t="n">
-        <v>680.8150744963718</v>
+        <v>947.8855102906111</v>
       </c>
       <c r="W21" t="n">
-        <v>667.0118023016888</v>
+        <v>693.6481535624094</v>
       </c>
       <c r="X21" t="n">
-        <v>667.0118023016888</v>
+        <v>693.6481535624094</v>
       </c>
       <c r="Y21" t="n">
-        <v>667.0118023016888</v>
+        <v>485.8878547974555</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="C22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="D22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="E22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="F22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="G22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J22" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="K22" t="n">
-        <v>33.75295459234948</v>
+        <v>33.75295459234949</v>
       </c>
       <c r="L22" t="n">
-        <v>93.73040846895617</v>
+        <v>93.73040846895618</v>
       </c>
       <c r="M22" t="n">
         <v>167.3573472167815</v>
@@ -5932,28 +5932,28 @@
         <v>323.9384590987336</v>
       </c>
       <c r="R22" t="n">
-        <v>323.9384590987336</v>
+        <v>154.9332886907467</v>
       </c>
       <c r="S22" t="n">
-        <v>323.9384590987336</v>
+        <v>154.9332886907467</v>
       </c>
       <c r="T22" t="n">
-        <v>323.9384590987336</v>
+        <v>154.9332886907467</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1736297948968</v>
+        <v>106.1684593869098</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9232261225285</v>
+        <v>91.91805571454155</v>
       </c>
       <c r="W22" t="n">
-        <v>211.9401406190864</v>
+        <v>42.93497021109953</v>
       </c>
       <c r="X22" t="n">
-        <v>211.9401406190864</v>
+        <v>42.93497021109953</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.2746602107194</v>
+        <v>42.93497021109953</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>868.4565250949232</v>
+        <v>868.4565250949238</v>
       </c>
       <c r="C23" t="n">
-        <v>739.9280926880301</v>
+        <v>739.9280926880308</v>
       </c>
       <c r="D23" t="n">
-        <v>622.0964786147985</v>
+        <v>622.0964786147991</v>
       </c>
       <c r="E23" t="n">
-        <v>476.7423105500728</v>
+        <v>476.7423105500735</v>
       </c>
       <c r="F23" t="n">
-        <v>306.1904902939839</v>
+        <v>306.1904902939846</v>
       </c>
       <c r="G23" t="n">
         <v>127.6265871562919</v>
       </c>
       <c r="H23" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I23" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J23" t="n">
-        <v>60.01453471024351</v>
+        <v>60.01453471024352</v>
       </c>
       <c r="K23" t="n">
         <v>225.3317015655475</v>
@@ -6002,37 +6002,37 @@
         <v>1078.923652632547</v>
       </c>
       <c r="O23" t="n">
-        <v>1310.641431070883</v>
+        <v>1310.641431070884</v>
       </c>
       <c r="P23" t="n">
         <v>1470.732811080195</v>
       </c>
       <c r="Q23" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R23" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S23" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="T23" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="U23" t="n">
-        <v>1500.322575342028</v>
+        <v>1500.322575342029</v>
       </c>
       <c r="V23" t="n">
-        <v>1409.693772531976</v>
+        <v>1409.693772531977</v>
       </c>
       <c r="W23" t="n">
         <v>1297.359201795381</v>
       </c>
       <c r="X23" t="n">
-        <v>1164.327528067819</v>
+        <v>1164.32752806782</v>
       </c>
       <c r="Y23" t="n">
-        <v>1014.622280625526</v>
+        <v>1014.622280625527</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>730.0570186899648</v>
+        <v>623.686385885391</v>
       </c>
       <c r="C24" t="n">
-        <v>555.6039894088378</v>
+        <v>449.233356604264</v>
       </c>
       <c r="D24" t="n">
-        <v>555.6039894088378</v>
+        <v>300.2989469430128</v>
       </c>
       <c r="E24" t="n">
-        <v>396.3665344033823</v>
+        <v>141.0614919375573</v>
       </c>
       <c r="F24" t="n">
-        <v>249.8319764302672</v>
+        <v>141.0614919375573</v>
       </c>
       <c r="G24" t="n">
-        <v>111.3685285248505</v>
+        <v>141.0614919375573</v>
       </c>
       <c r="H24" t="n">
-        <v>111.3685285248505</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I24" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J24" t="n">
-        <v>54.29414604109613</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="K24" t="n">
-        <v>221.9681162074349</v>
+        <v>197.9486303770582</v>
       </c>
       <c r="L24" t="n">
-        <v>508.8308576360241</v>
+        <v>484.8113718056474</v>
       </c>
       <c r="M24" t="n">
-        <v>883.4797777436768</v>
+        <v>859.4602919133001</v>
       </c>
       <c r="N24" t="n">
-        <v>969.9448277921351</v>
+        <v>867.0989614645405</v>
       </c>
       <c r="O24" t="n">
-        <v>1281.048197036916</v>
+        <v>1178.202330709322</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.73301053597</v>
+        <v>1410.887144208376</v>
       </c>
       <c r="Q24" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="R24" t="n">
-        <v>1429.16434099857</v>
+        <v>1513.733010535971</v>
       </c>
       <c r="S24" t="n">
-        <v>1360.270011203188</v>
+        <v>1345.282086000601</v>
       </c>
       <c r="T24" t="n">
-        <v>1360.270011203188</v>
+        <v>1144.173210365939</v>
       </c>
       <c r="U24" t="n">
-        <v>1360.270011203188</v>
+        <v>1144.173210365939</v>
       </c>
       <c r="V24" t="n">
-        <v>1360.270011203188</v>
+        <v>909.0211021341959</v>
       </c>
       <c r="W24" t="n">
-        <v>1106.032654474987</v>
+        <v>895.2178299395129</v>
       </c>
       <c r="X24" t="n">
-        <v>1106.032654474987</v>
+        <v>895.2178299395129</v>
       </c>
       <c r="Y24" t="n">
-        <v>898.2723557100328</v>
+        <v>687.4575311745589</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="C25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="D25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="E25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="F25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="G25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="H25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="I25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="J25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="K25" t="n">
-        <v>33.75295459234948</v>
+        <v>33.75295459234949</v>
       </c>
       <c r="L25" t="n">
-        <v>93.73040846895617</v>
+        <v>93.73040846895618</v>
       </c>
       <c r="M25" t="n">
         <v>167.3573472167815</v>
@@ -6178,19 +6178,19 @@
         <v>323.9384590987336</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1736297948968</v>
+        <v>93.50814938652972</v>
       </c>
       <c r="V25" t="n">
-        <v>260.9232261225285</v>
+        <v>79.25774571416144</v>
       </c>
       <c r="W25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="X25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.2746602107194</v>
+        <v>30.27466021071941</v>
       </c>
     </row>
     <row r="26">
@@ -6209,22 +6209,22 @@
         <v>1042.480107071106</v>
       </c>
       <c r="E26" t="n">
-        <v>808.6195722576119</v>
+        <v>808.6195722576118</v>
       </c>
       <c r="F26" t="n">
-        <v>549.5613852527542</v>
+        <v>549.5613852527541</v>
       </c>
       <c r="G26" t="n">
-        <v>282.4911153662933</v>
+        <v>282.4911153662931</v>
       </c>
       <c r="H26" t="n">
-        <v>96.63282167195206</v>
+        <v>96.63282167195189</v>
       </c>
       <c r="I26" t="n">
         <v>55.22435560258768</v>
       </c>
       <c r="J26" t="n">
-        <v>233.8685863029453</v>
+        <v>233.8685863029452</v>
       </c>
       <c r="K26" t="n">
         <v>548.0901093590826</v>
@@ -6257,10 +6257,10 @@
         <v>2642.167572982429</v>
       </c>
       <c r="U26" t="n">
-        <v>2540.250771039719</v>
+        <v>2540.250771039718</v>
       </c>
       <c r="V26" t="n">
-        <v>2361.115601480898</v>
+        <v>2361.115601480897</v>
       </c>
       <c r="W26" t="n">
         <v>2160.274663995533</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>784.69967749454</v>
+        <v>535.4493978622852</v>
       </c>
       <c r="C27" t="n">
-        <v>610.246648213413</v>
+        <v>360.9963685811582</v>
       </c>
       <c r="D27" t="n">
-        <v>610.246648213413</v>
+        <v>360.9963685811582</v>
       </c>
       <c r="E27" t="n">
-        <v>451.0091932079574</v>
+        <v>201.7589135757027</v>
       </c>
       <c r="F27" t="n">
-        <v>304.4746352348424</v>
+        <v>55.22435560258768</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0111873294256</v>
+        <v>55.22435560258768</v>
       </c>
       <c r="H27" t="n">
         <v>55.22435560258768</v>
@@ -6333,22 +6333,22 @@
         <v>1726.806754033217</v>
       </c>
       <c r="T27" t="n">
-        <v>1677.625596183304</v>
+        <v>1525.697878398554</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.41956854548</v>
+        <v>1297.491850760731</v>
       </c>
       <c r="V27" t="n">
-        <v>1366.195178098488</v>
+        <v>1062.339742528988</v>
       </c>
       <c r="W27" t="n">
-        <v>1111.957821370286</v>
+        <v>808.1023858007864</v>
       </c>
       <c r="X27" t="n">
-        <v>1056.034038949503</v>
+        <v>607.5695980778074</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.9150145146079</v>
+        <v>551.7370170976034</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.71392454082164</v>
+        <v>89.06663478915721</v>
       </c>
       <c r="C28" t="n">
-        <v>82.70545939766457</v>
+        <v>72.05816964600015</v>
       </c>
       <c r="D28" t="n">
-        <v>82.70545939766457</v>
+        <v>73.83320755880325</v>
       </c>
       <c r="E28" t="n">
-        <v>82.70545939766457</v>
+        <v>77.7679407395331</v>
       </c>
       <c r="F28" t="n">
-        <v>82.70545939766457</v>
+        <v>82.70545939766451</v>
       </c>
       <c r="G28" t="n">
-        <v>65.16947956881823</v>
+        <v>65.1694795688182</v>
       </c>
       <c r="H28" t="n">
         <v>55.22435560258768</v>
       </c>
       <c r="I28" t="n">
-        <v>55.22435560258768</v>
+        <v>56.83970578700438</v>
       </c>
       <c r="J28" t="n">
-        <v>55.22435560258768</v>
+        <v>128.8512307111837</v>
       </c>
       <c r="K28" t="n">
-        <v>207.6070061850511</v>
+        <v>132.3295250928138</v>
       </c>
       <c r="L28" t="n">
-        <v>267.5844600616578</v>
+        <v>192.3069789694205</v>
       </c>
       <c r="M28" t="n">
-        <v>341.2113988094831</v>
+        <v>265.9339177172458</v>
       </c>
       <c r="N28" t="n">
-        <v>567.4266261408712</v>
+        <v>492.149145048634</v>
       </c>
       <c r="O28" t="n">
-        <v>622.8194332425408</v>
+        <v>551.334131852195</v>
       </c>
       <c r="P28" t="n">
-        <v>795.6012230931019</v>
+        <v>724.1159217027562</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.7639848881362</v>
+        <v>806.1166951364714</v>
       </c>
       <c r="R28" t="n">
-        <v>799.686532264899</v>
+        <v>789.0392425132344</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2413611982925</v>
+        <v>718.5940714466278</v>
       </c>
       <c r="T28" t="n">
-        <v>651.8787847843128</v>
+        <v>641.2314950326481</v>
       </c>
       <c r="U28" t="n">
-        <v>514.6075887317071</v>
+        <v>503.9602989800426</v>
       </c>
       <c r="V28" t="n">
-        <v>411.85081831057</v>
+        <v>401.2035285589055</v>
       </c>
       <c r="W28" t="n">
-        <v>274.3613660583592</v>
+        <v>263.7140763066948</v>
       </c>
       <c r="X28" t="n">
-        <v>198.2995329450918</v>
+        <v>187.6522431934273</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.4346715863115</v>
+        <v>118.7873818346471</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1465.852887048769</v>
       </c>
       <c r="C29" t="n">
-        <v>1248.818087893108</v>
+        <v>1248.818087893107</v>
       </c>
       <c r="D29" t="n">
-        <v>1042.480107071107</v>
+        <v>1042.480107071106</v>
       </c>
       <c r="E29" t="n">
-        <v>808.6195722576124</v>
+        <v>808.619572257612</v>
       </c>
       <c r="F29" t="n">
-        <v>549.5613852527547</v>
+        <v>549.5613852527543</v>
       </c>
       <c r="G29" t="n">
-        <v>282.4911153662938</v>
+        <v>282.4911153662933</v>
       </c>
       <c r="H29" t="n">
         <v>96.6328216719522</v>
@@ -6461,13 +6461,13 @@
         <v>55.22435560258769</v>
       </c>
       <c r="J29" t="n">
-        <v>233.8685863029451</v>
+        <v>233.8685863029452</v>
       </c>
       <c r="K29" t="n">
-        <v>548.0901093590825</v>
+        <v>548.0901093590828</v>
       </c>
       <c r="L29" t="n">
-        <v>954.3616569300013</v>
+        <v>954.3616569300017</v>
       </c>
       <c r="M29" t="n">
         <v>1406.243148351839</v>
@@ -6500,7 +6500,7 @@
         <v>2361.115601480898</v>
       </c>
       <c r="W29" t="n">
-        <v>2160.274663995534</v>
+        <v>2160.274663995533</v>
       </c>
       <c r="X29" t="n">
         <v>1938.736623519203</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>764.6270727018814</v>
+        <v>537.8492495504214</v>
       </c>
       <c r="C30" t="n">
-        <v>648.3942261478262</v>
+        <v>363.3962202692944</v>
       </c>
       <c r="D30" t="n">
-        <v>499.459816486575</v>
+        <v>214.4618106080432</v>
       </c>
       <c r="E30" t="n">
-        <v>340.2223614811195</v>
+        <v>55.22435560258769</v>
       </c>
       <c r="F30" t="n">
-        <v>193.6878035080045</v>
+        <v>55.22435560258769</v>
       </c>
       <c r="G30" t="n">
         <v>55.22435560258769</v>
@@ -6564,28 +6564,28 @@
         <v>1979.826348105987</v>
       </c>
       <c r="R30" t="n">
-        <v>1979.826348105987</v>
+        <v>1895.257678568586</v>
       </c>
       <c r="S30" t="n">
-        <v>1963.303141355367</v>
+        <v>1878.734471817966</v>
       </c>
       <c r="T30" t="n">
-        <v>1762.194265720704</v>
+        <v>1677.625596183304</v>
       </c>
       <c r="U30" t="n">
-        <v>1685.915955867631</v>
+        <v>1449.41956854548</v>
       </c>
       <c r="V30" t="n">
-        <v>1450.763847635888</v>
+        <v>1214.267460313738</v>
       </c>
       <c r="W30" t="n">
-        <v>1348.454208692436</v>
+        <v>960.0301035855362</v>
       </c>
       <c r="X30" t="n">
-        <v>1140.602708486903</v>
+        <v>904.1063211647531</v>
       </c>
       <c r="Y30" t="n">
-        <v>932.8424097219495</v>
+        <v>696.3460223997993</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.71392454082167</v>
+        <v>89.06663478915755</v>
       </c>
       <c r="C31" t="n">
-        <v>82.70545939766458</v>
+        <v>72.05816964600044</v>
       </c>
       <c r="D31" t="n">
-        <v>82.70545939766458</v>
+        <v>73.83320755880348</v>
       </c>
       <c r="E31" t="n">
-        <v>82.70545939766458</v>
+        <v>77.76794073953329</v>
       </c>
       <c r="F31" t="n">
-        <v>82.70545939766458</v>
+        <v>82.70545939766464</v>
       </c>
       <c r="G31" t="n">
-        <v>65.16947956881825</v>
+        <v>65.16947956881828</v>
       </c>
       <c r="H31" t="n">
         <v>55.22435560258769</v>
       </c>
       <c r="I31" t="n">
-        <v>56.83970578700436</v>
+        <v>56.83970578700433</v>
       </c>
       <c r="J31" t="n">
-        <v>128.8512307111837</v>
+        <v>56.83970578700433</v>
       </c>
       <c r="K31" t="n">
-        <v>146.76899454637</v>
+        <v>69.21812202758815</v>
       </c>
       <c r="L31" t="n">
-        <v>206.7464484229767</v>
+        <v>278.0999321050281</v>
       </c>
       <c r="M31" t="n">
-        <v>429.2777433716353</v>
+        <v>351.7268708528535</v>
       </c>
       <c r="N31" t="n">
-        <v>655.4929707030235</v>
+        <v>577.9420981842416</v>
       </c>
       <c r="O31" t="n">
-        <v>710.885777804693</v>
+        <v>782.2392614867443</v>
       </c>
       <c r="P31" t="n">
-        <v>734.7632114544209</v>
+        <v>806.1166951364722</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.7639848881362</v>
+        <v>806.1166951364722</v>
       </c>
       <c r="R31" t="n">
-        <v>799.686532264899</v>
+        <v>789.0392425132351</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2413611982925</v>
+        <v>718.5940714466285</v>
       </c>
       <c r="T31" t="n">
-        <v>651.8787847843128</v>
+        <v>641.2314950326488</v>
       </c>
       <c r="U31" t="n">
-        <v>514.6075887317071</v>
+        <v>503.9602989800431</v>
       </c>
       <c r="V31" t="n">
-        <v>411.85081831057</v>
+        <v>401.2035285589061</v>
       </c>
       <c r="W31" t="n">
-        <v>274.3613660583593</v>
+        <v>263.7140763066953</v>
       </c>
       <c r="X31" t="n">
-        <v>198.2995329450918</v>
+        <v>187.6522431934278</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.4346715863115</v>
+        <v>118.7873818346474</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>1449.763523556046</v>
       </c>
       <c r="C32" t="n">
-        <v>1234.930899850505</v>
+        <v>1234.930899850506</v>
       </c>
       <c r="D32" t="n">
         <v>1030.795094478626</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1367351152526</v>
+        <v>799.1367351152531</v>
       </c>
       <c r="F32" t="n">
-        <v>542.2807235605162</v>
+        <v>542.2807235605168</v>
       </c>
       <c r="G32" t="n">
-        <v>277.4126291241766</v>
+        <v>277.4126291241771</v>
       </c>
       <c r="H32" t="n">
-        <v>93.75651087995695</v>
+        <v>93.75651087995696</v>
       </c>
       <c r="I32" t="n">
         <v>54.55022026071379</v>
@@ -6716,34 +6716,34 @@
         <v>2241.293241277861</v>
       </c>
       <c r="P32" t="n">
-        <v>2499.989528466875</v>
+        <v>2499.989528466874</v>
       </c>
       <c r="Q32" t="n">
         <v>2694.052436282147</v>
       </c>
       <c r="R32" t="n">
-        <v>2727.51101303569</v>
+        <v>2727.511013035689</v>
       </c>
       <c r="S32" t="n">
         <v>2681.897051647081</v>
       </c>
       <c r="T32" t="n">
-        <v>2612.865156788976</v>
+        <v>2612.865156788977</v>
       </c>
       <c r="U32" t="n">
         <v>2513.150530296388</v>
       </c>
       <c r="V32" t="n">
-        <v>2336.217536187688</v>
+        <v>2336.217536187689</v>
       </c>
       <c r="W32" t="n">
-        <v>2137.578774152445</v>
+        <v>2137.578774152446</v>
       </c>
       <c r="X32" t="n">
         <v>1918.242909126237</v>
       </c>
       <c r="Y32" t="n">
-        <v>1682.233470385296</v>
+        <v>1682.233470385297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>668.0432268522082</v>
+        <v>531.8609009381</v>
       </c>
       <c r="C33" t="n">
-        <v>647.7200908059524</v>
+        <v>357.407871656973</v>
       </c>
       <c r="D33" t="n">
-        <v>498.7856811447011</v>
+        <v>357.407871656973</v>
       </c>
       <c r="E33" t="n">
-        <v>339.5482261392456</v>
+        <v>198.1704166515175</v>
       </c>
       <c r="F33" t="n">
-        <v>193.0136681661306</v>
+        <v>54.55022026071379</v>
       </c>
       <c r="G33" t="n">
         <v>54.55022026071379</v>
@@ -6801,28 +6801,28 @@
         <v>1979.152212764113</v>
       </c>
       <c r="R33" t="n">
-        <v>1979.152212764113</v>
+        <v>1894.583543226712</v>
       </c>
       <c r="S33" t="n">
-        <v>1810.701288228743</v>
+        <v>1726.132618691343</v>
       </c>
       <c r="T33" t="n">
-        <v>1609.592412594081</v>
+        <v>1525.02374305668</v>
       </c>
       <c r="U33" t="n">
-        <v>1535.516278191128</v>
+        <v>1296.817715418857</v>
       </c>
       <c r="V33" t="n">
-        <v>1351.977826336093</v>
+        <v>1061.665607187114</v>
       </c>
       <c r="W33" t="n">
-        <v>1097.740469607892</v>
+        <v>961.5581436937837</v>
       </c>
       <c r="X33" t="n">
-        <v>889.888969402359</v>
+        <v>753.7066434882508</v>
       </c>
       <c r="Y33" t="n">
-        <v>836.2585638722762</v>
+        <v>700.0762379581681</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.3373920317884</v>
+        <v>75.3109166209278</v>
       </c>
       <c r="C34" t="n">
-        <v>70.53110233875267</v>
+        <v>60.50462692789204</v>
       </c>
       <c r="D34" t="n">
-        <v>70.53110233875267</v>
+        <v>64.43801699935902</v>
       </c>
       <c r="E34" t="n">
-        <v>70.53110233875267</v>
+        <v>70.53110233875276</v>
       </c>
       <c r="F34" t="n">
-        <v>77.62697315554799</v>
+        <v>77.62697315554804</v>
       </c>
       <c r="G34" t="n">
-        <v>62.293168776823</v>
+        <v>62.29316877682302</v>
       </c>
       <c r="H34" t="n">
         <v>54.55022026071379</v>
@@ -6859,49 +6859,49 @@
         <v>54.55022026071379</v>
       </c>
       <c r="K34" t="n">
-        <v>190.2569521026322</v>
+        <v>209.0912230018411</v>
       </c>
       <c r="L34" t="n">
-        <v>401.2971143387362</v>
+        <v>391.2706389278757</v>
       </c>
       <c r="M34" t="n">
-        <v>625.9867614460587</v>
+        <v>464.8975776757011</v>
       </c>
       <c r="N34" t="n">
-        <v>703.2976325766135</v>
+        <v>542.2084488062559</v>
       </c>
       <c r="O34" t="n">
-        <v>758.6904396782829</v>
+        <v>748.6639642674226</v>
       </c>
       <c r="P34" t="n">
-        <v>782.5678733280108</v>
+        <v>772.5413979171504</v>
       </c>
       <c r="Q34" t="n">
-        <v>782.5678733280108</v>
+        <v>772.5413979171504</v>
       </c>
       <c r="R34" t="n">
-        <v>767.6925961548951</v>
+        <v>757.6661207440346</v>
       </c>
       <c r="S34" t="n">
-        <v>699.4496005384099</v>
+        <v>689.4231251275494</v>
       </c>
       <c r="T34" t="n">
-        <v>624.2891995745515</v>
+        <v>614.262724163691</v>
       </c>
       <c r="U34" t="n">
-        <v>489.2201789720672</v>
+        <v>479.1937035612067</v>
       </c>
       <c r="V34" t="n">
-        <v>388.6655840010515</v>
+        <v>378.639108590191</v>
       </c>
       <c r="W34" t="n">
-        <v>253.378307198962</v>
+        <v>243.3518317881015</v>
       </c>
       <c r="X34" t="n">
-        <v>179.5186495358158</v>
+        <v>169.4921741249553</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.8559636271569</v>
+        <v>102.8294882162963</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>1089.036043622728</v>
       </c>
       <c r="C35" t="n">
-        <v>925.2448467067047</v>
+        <v>925.2448467067045</v>
       </c>
       <c r="D35" t="n">
-        <v>772.1504681243428</v>
+        <v>772.1504681243425</v>
       </c>
       <c r="E35" t="n">
-        <v>591.5335355504869</v>
+        <v>591.5335355504868</v>
       </c>
       <c r="F35" t="n">
-        <v>385.7189507852679</v>
+        <v>385.7189507852678</v>
       </c>
       <c r="G35" t="n">
-        <v>171.8922831384455</v>
+        <v>171.8922831384454</v>
       </c>
       <c r="H35" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I35" t="n">
-        <v>39.27759168374285</v>
+        <v>50.87720864422857</v>
       </c>
       <c r="J35" t="n">
-        <v>69.01746618326695</v>
+        <v>228.5447977616275</v>
       </c>
       <c r="K35" t="n">
-        <v>234.334633038571</v>
+        <v>393.8619646169315</v>
       </c>
       <c r="L35" t="n">
-        <v>491.7018244086565</v>
+        <v>651.2291559870171</v>
       </c>
       <c r="M35" t="n">
-        <v>794.6789596296607</v>
+        <v>954.2062912080212</v>
       </c>
       <c r="N35" t="n">
-        <v>1087.92658410557</v>
+        <v>1440.266488294339</v>
       </c>
       <c r="O35" t="n">
-        <v>1520.73277329981</v>
+        <v>1671.984266732675</v>
       </c>
       <c r="P35" t="n">
-        <v>1680.824153309122</v>
+        <v>1832.075646741987</v>
       </c>
       <c r="Q35" t="n">
-        <v>1875.075846197763</v>
+        <v>1875.075846197762</v>
       </c>
       <c r="R35" t="n">
         <v>1958.560125347711</v>
@@ -6968,7 +6968,7 @@
         <v>1945.889116118555</v>
       </c>
       <c r="U35" t="n">
-        <v>1897.215916415484</v>
+        <v>1897.215916415483</v>
       </c>
       <c r="V35" t="n">
         <v>1771.324349096301</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.3373874956018</v>
+        <v>521.9024856315766</v>
       </c>
       <c r="C36" t="n">
-        <v>780.8843582144748</v>
+        <v>347.4494563504496</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9499485532235</v>
+        <v>198.5150466891984</v>
       </c>
       <c r="E36" t="n">
-        <v>472.712493547768</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="F36" t="n">
-        <v>326.177935574653</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="G36" t="n">
-        <v>187.7144876692362</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="H36" t="n">
-        <v>76.92765594239835</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I36" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="J36" t="n">
-        <v>63.29707751411956</v>
+        <v>63.29707751411957</v>
       </c>
       <c r="K36" t="n">
-        <v>230.9710476804583</v>
+        <v>230.9710476804584</v>
       </c>
       <c r="L36" t="n">
-        <v>517.8337891090475</v>
+        <v>517.8337891090476</v>
       </c>
       <c r="M36" t="n">
         <v>904.5682995551228</v>
@@ -7038,28 +7038,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R36" t="n">
-        <v>1879.310914649742</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="S36" t="n">
-        <v>1879.310914649742</v>
+        <v>1795.428659651772</v>
       </c>
       <c r="T36" t="n">
-        <v>1678.202039015079</v>
+        <v>1594.31978401711</v>
       </c>
       <c r="U36" t="n">
-        <v>1655.167331401644</v>
+        <v>1366.113756379286</v>
       </c>
       <c r="V36" t="n">
-        <v>1420.015223169902</v>
+        <v>1130.961648147544</v>
       </c>
       <c r="W36" t="n">
-        <v>1165.7778664417</v>
+        <v>876.7242914193421</v>
       </c>
       <c r="X36" t="n">
-        <v>957.9263662361673</v>
+        <v>729.6627843965305</v>
       </c>
       <c r="Y36" t="n">
-        <v>955.3373874956018</v>
+        <v>521.9024856315766</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="C37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="D37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="E37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="F37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="G37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="H37" t="n">
-        <v>43.16043779684566</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I37" t="n">
-        <v>43.16043779684566</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="J37" t="n">
-        <v>43.16043779684566</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="K37" t="n">
-        <v>46.63873217847573</v>
+        <v>42.75588606537291</v>
       </c>
       <c r="L37" t="n">
-        <v>106.6161860550824</v>
+        <v>106.616186055082</v>
       </c>
       <c r="M37" t="n">
-        <v>180.2431248029078</v>
+        <v>180.2431248029074</v>
       </c>
       <c r="N37" t="n">
-        <v>257.5539959334626</v>
+        <v>257.5539959334622</v>
       </c>
       <c r="O37" t="n">
-        <v>312.9468030351321</v>
+        <v>312.9468030351317</v>
       </c>
       <c r="P37" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="Q37" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="R37" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="S37" t="n">
-        <v>319.6226678578919</v>
+        <v>319.6226678578916</v>
       </c>
       <c r="T37" t="n">
-        <v>295.5036936835509</v>
+        <v>295.5036936835506</v>
       </c>
       <c r="U37" t="n">
-        <v>211.4760998705839</v>
+        <v>211.4760998705837</v>
       </c>
       <c r="V37" t="n">
-        <v>161.9629316890855</v>
+        <v>161.9629316890853</v>
       </c>
       <c r="W37" t="n">
-        <v>77.71708167651336</v>
+        <v>77.71708167651325</v>
       </c>
       <c r="X37" t="n">
-        <v>54.89885080288449</v>
+        <v>54.89885080288443</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.27759168374285</v>
+        <v>39.27759168374284</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1089.036043622728</v>
+        <v>1089.036043622729</v>
       </c>
       <c r="C38" t="n">
-        <v>925.2448467067045</v>
+        <v>925.2448467067055</v>
       </c>
       <c r="D38" t="n">
-        <v>772.1504681243425</v>
+        <v>772.1504681243435</v>
       </c>
       <c r="E38" t="n">
-        <v>591.5335355504867</v>
+        <v>591.5335355504878</v>
       </c>
       <c r="F38" t="n">
-        <v>385.7189507852677</v>
+        <v>385.7189507852687</v>
       </c>
       <c r="G38" t="n">
         <v>171.8922831384455</v>
@@ -7175,25 +7175,25 @@
         <v>69.01746618326695</v>
       </c>
       <c r="K38" t="n">
-        <v>435.4230437944741</v>
+        <v>234.334633038571</v>
       </c>
       <c r="L38" t="n">
-        <v>692.7902351645596</v>
+        <v>648.2727766809531</v>
       </c>
       <c r="M38" t="n">
-        <v>995.7673703855637</v>
+        <v>951.2499119019573</v>
       </c>
       <c r="N38" t="n">
-        <v>1327.981815527816</v>
+        <v>1244.497536377867</v>
       </c>
       <c r="O38" t="n">
-        <v>1559.699593966152</v>
+        <v>1476.215314816204</v>
       </c>
       <c r="P38" t="n">
-        <v>1719.790973975464</v>
+        <v>1636.306694825515</v>
       </c>
       <c r="Q38" t="n">
-        <v>1963.879584187142</v>
+        <v>1880.395305037194</v>
       </c>
       <c r="R38" t="n">
         <v>1963.879584187142</v>
@@ -7208,16 +7208,16 @@
         <v>1897.215916415484</v>
       </c>
       <c r="V38" t="n">
-        <v>1771.324349096301</v>
+        <v>1771.324349096302</v>
       </c>
       <c r="W38" t="n">
         <v>1623.727013850576</v>
       </c>
       <c r="X38" t="n">
-        <v>1455.432575613884</v>
+        <v>1455.432575613885</v>
       </c>
       <c r="Y38" t="n">
-        <v>1270.464563662461</v>
+        <v>1270.464563662462</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.9024856315766</v>
+        <v>567.0067725699975</v>
       </c>
       <c r="C39" t="n">
-        <v>347.4494563504496</v>
+        <v>567.0067725699975</v>
       </c>
       <c r="D39" t="n">
-        <v>198.5150466891984</v>
+        <v>418.0723629087462</v>
       </c>
       <c r="E39" t="n">
-        <v>39.27759168374285</v>
+        <v>258.8349079032907</v>
       </c>
       <c r="F39" t="n">
-        <v>39.27759168374285</v>
+        <v>258.8349079032907</v>
       </c>
       <c r="G39" t="n">
-        <v>39.27759168374285</v>
+        <v>120.3714599978739</v>
       </c>
       <c r="H39" t="n">
-        <v>39.27759168374285</v>
+        <v>120.3714599978739</v>
       </c>
       <c r="I39" t="n">
         <v>39.27759168374285</v>
       </c>
       <c r="J39" t="n">
-        <v>63.29707751411958</v>
+        <v>63.29707751411956</v>
       </c>
       <c r="K39" t="n">
-        <v>230.9710476804583</v>
+        <v>230.9710476804582</v>
       </c>
       <c r="L39" t="n">
         <v>517.8337891090475</v>
@@ -7275,28 +7275,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R39" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649742</v>
       </c>
       <c r="S39" t="n">
-        <v>1795.428659651772</v>
+        <v>1879.310914649742</v>
       </c>
       <c r="T39" t="n">
-        <v>1795.428659651772</v>
+        <v>1678.202039015079</v>
       </c>
       <c r="U39" t="n">
-        <v>1567.222632013949</v>
+        <v>1449.996011377256</v>
       </c>
       <c r="V39" t="n">
-        <v>1359.966978350333</v>
+        <v>1405.071265288754</v>
       </c>
       <c r="W39" t="n">
-        <v>1105.729621622131</v>
+        <v>1150.833908560552</v>
       </c>
       <c r="X39" t="n">
-        <v>897.8781214165986</v>
+        <v>942.9824083550193</v>
       </c>
       <c r="Y39" t="n">
-        <v>690.1178226516447</v>
+        <v>735.2221095900654</v>
       </c>
     </row>
     <row r="40">
@@ -7342,25 +7342,25 @@
         <v>176.3602786898049</v>
       </c>
       <c r="N40" t="n">
-        <v>257.5539959334626</v>
+        <v>253.6711498203598</v>
       </c>
       <c r="O40" t="n">
-        <v>312.9468030351321</v>
+        <v>309.0639569220292</v>
       </c>
       <c r="P40" t="n">
-        <v>336.8242366848599</v>
+        <v>332.941390571757</v>
       </c>
       <c r="Q40" t="n">
-        <v>336.8242366848599</v>
+        <v>332.941390571757</v>
       </c>
       <c r="R40" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848598</v>
       </c>
       <c r="S40" t="n">
-        <v>319.6226678578919</v>
+        <v>319.6226678578918</v>
       </c>
       <c r="T40" t="n">
-        <v>295.5036936835509</v>
+        <v>295.5036936835508</v>
       </c>
       <c r="U40" t="n">
         <v>211.4760998705839</v>
@@ -7369,10 +7369,10 @@
         <v>161.9629316890855</v>
       </c>
       <c r="W40" t="n">
-        <v>77.71708167651336</v>
+        <v>77.7170816765133</v>
       </c>
       <c r="X40" t="n">
-        <v>54.89885080288449</v>
+        <v>54.89885080288446</v>
       </c>
       <c r="Y40" t="n">
         <v>39.27759168374285</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1089.036043622728</v>
+        <v>1089.036043622729</v>
       </c>
       <c r="C41" t="n">
-        <v>925.2448467067047</v>
+        <v>925.2448467067057</v>
       </c>
       <c r="D41" t="n">
-        <v>772.1504681243428</v>
+        <v>772.1504681243438</v>
       </c>
       <c r="E41" t="n">
-        <v>591.5335355504869</v>
+        <v>591.5335355504881</v>
       </c>
       <c r="F41" t="n">
-        <v>385.7189507852681</v>
+        <v>385.718950785269</v>
       </c>
       <c r="G41" t="n">
         <v>171.8922831384454</v>
@@ -7406,31 +7406,31 @@
         <v>39.27759168374285</v>
       </c>
       <c r="I41" t="n">
-        <v>39.27759168374285</v>
+        <v>50.87720864422859</v>
       </c>
       <c r="J41" t="n">
-        <v>270.1058769391701</v>
+        <v>281.7054938996558</v>
       </c>
       <c r="K41" t="n">
-        <v>435.4230437944741</v>
+        <v>447.0226607549598</v>
       </c>
       <c r="L41" t="n">
-        <v>692.7902351645596</v>
+        <v>704.3898521250453</v>
       </c>
       <c r="M41" t="n">
-        <v>1034.734191051906</v>
+        <v>1190.450049211363</v>
       </c>
       <c r="N41" t="n">
-        <v>1327.981815527816</v>
+        <v>1483.697673687273</v>
       </c>
       <c r="O41" t="n">
-        <v>1760.788004722055</v>
+        <v>1715.415452125609</v>
       </c>
       <c r="P41" t="n">
-        <v>1920.879384731367</v>
+        <v>1875.506832134921</v>
       </c>
       <c r="Q41" t="n">
-        <v>1963.879584187142</v>
+        <v>1918.507031590696</v>
       </c>
       <c r="R41" t="n">
         <v>1963.879584187142</v>
@@ -7439,22 +7439,22 @@
         <v>1963.879584187142</v>
       </c>
       <c r="T41" t="n">
-        <v>1945.889116118555</v>
+        <v>1945.889116118556</v>
       </c>
       <c r="U41" t="n">
-        <v>1897.215916415483</v>
+        <v>1897.215916415484</v>
       </c>
       <c r="V41" t="n">
-        <v>1771.324349096301</v>
+        <v>1771.324349096302</v>
       </c>
       <c r="W41" t="n">
         <v>1623.727013850576</v>
       </c>
       <c r="X41" t="n">
-        <v>1455.432575613884</v>
+        <v>1455.432575613885</v>
       </c>
       <c r="Y41" t="n">
-        <v>1270.464563662461</v>
+        <v>1270.464563662462</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>739.0599501629882</v>
+        <v>647.663036504653</v>
       </c>
       <c r="C42" t="n">
-        <v>564.6069208818612</v>
+        <v>473.210007223526</v>
       </c>
       <c r="D42" t="n">
-        <v>564.6069208818612</v>
+        <v>324.2755975622747</v>
       </c>
       <c r="E42" t="n">
-        <v>405.3694658764057</v>
+        <v>324.2755975622747</v>
       </c>
       <c r="F42" t="n">
-        <v>258.8349079032907</v>
+        <v>177.7410395891596</v>
       </c>
       <c r="G42" t="n">
-        <v>120.3714599978739</v>
+        <v>39.27759168374285</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3714599978739</v>
+        <v>39.27759168374285</v>
       </c>
       <c r="I42" t="n">
         <v>39.27759168374285</v>
@@ -7512,28 +7512,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R42" t="n">
-        <v>1879.310914649742</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="S42" t="n">
-        <v>1868.204797341517</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="T42" t="n">
-        <v>1667.095921706854</v>
+        <v>1762.77070855248</v>
       </c>
       <c r="U42" t="n">
-        <v>1438.889894069031</v>
+        <v>1534.564680914656</v>
       </c>
       <c r="V42" t="n">
-        <v>1203.737785837288</v>
+        <v>1299.412572682914</v>
       </c>
       <c r="W42" t="n">
-        <v>949.5004291090864</v>
+        <v>1045.175215954712</v>
       </c>
       <c r="X42" t="n">
-        <v>741.6489289035536</v>
+        <v>837.3237157491792</v>
       </c>
       <c r="Y42" t="n">
-        <v>739.0599501629882</v>
+        <v>647.663036504653</v>
       </c>
     </row>
     <row r="43">
@@ -7558,10 +7558,10 @@
         <v>39.27759168374285</v>
       </c>
       <c r="G43" t="n">
-        <v>43.16043779684526</v>
+        <v>39.27759168374285</v>
       </c>
       <c r="H43" t="n">
-        <v>43.16043779684526</v>
+        <v>39.27759168374285</v>
       </c>
       <c r="I43" t="n">
         <v>43.16043779684526</v>
@@ -7649,28 +7649,28 @@
         <v>69.01746618326695</v>
       </c>
       <c r="K44" t="n">
-        <v>435.4230437944741</v>
+        <v>291.3068025955026</v>
       </c>
       <c r="L44" t="n">
-        <v>844.0417285974254</v>
+        <v>548.6739939655881</v>
       </c>
       <c r="M44" t="n">
-        <v>1147.01886381843</v>
+        <v>1034.734191051906</v>
       </c>
       <c r="N44" t="n">
-        <v>1440.266488294339</v>
+        <v>1327.981815527816</v>
       </c>
       <c r="O44" t="n">
-        <v>1671.984266732676</v>
+        <v>1559.699593966152</v>
       </c>
       <c r="P44" t="n">
-        <v>1832.075646741987</v>
+        <v>1920.879384731367</v>
       </c>
       <c r="Q44" t="n">
-        <v>1875.075846197763</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="R44" t="n">
-        <v>1958.560125347711</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="S44" t="n">
         <v>1963.879584187142</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>347.4494563504496</v>
+        <v>413.4998059157755</v>
       </c>
       <c r="C45" t="n">
-        <v>347.4494563504496</v>
+        <v>239.0467766346485</v>
       </c>
       <c r="D45" t="n">
-        <v>198.5150466891984</v>
+        <v>239.0467766346485</v>
       </c>
       <c r="E45" t="n">
-        <v>39.27759168374285</v>
+        <v>239.0467766346485</v>
       </c>
       <c r="F45" t="n">
-        <v>39.27759168374285</v>
+        <v>177.7410395891596</v>
       </c>
       <c r="G45" t="n">
         <v>39.27759168374285</v>
@@ -7725,16 +7725,16 @@
         <v>39.27759168374285</v>
       </c>
       <c r="J45" t="n">
-        <v>63.29707751411958</v>
+        <v>63.29707751411991</v>
       </c>
       <c r="K45" t="n">
-        <v>230.9710476804583</v>
+        <v>230.9710476804586</v>
       </c>
       <c r="L45" t="n">
-        <v>517.8337891090475</v>
+        <v>517.8337891090479</v>
       </c>
       <c r="M45" t="n">
-        <v>904.5682995551227</v>
+        <v>904.5682995551231</v>
       </c>
       <c r="N45" t="n">
         <v>1317.245535115712</v>
@@ -7749,28 +7749,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R45" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649742</v>
       </c>
       <c r="S45" t="n">
-        <v>1795.428659651772</v>
+        <v>1710.859990114372</v>
       </c>
       <c r="T45" t="n">
-        <v>1594.31978401711</v>
+        <v>1509.75111447971</v>
       </c>
       <c r="U45" t="n">
-        <v>1420.666057300949</v>
+        <v>1281.545086841886</v>
       </c>
       <c r="V45" t="n">
-        <v>1185.513949069206</v>
+        <v>1046.392978610143</v>
       </c>
       <c r="W45" t="n">
-        <v>931.2765923410043</v>
+        <v>792.1556218819419</v>
       </c>
       <c r="X45" t="n">
-        <v>723.4250921354715</v>
+        <v>584.3041216764091</v>
       </c>
       <c r="Y45" t="n">
-        <v>515.6647933705176</v>
+        <v>581.7151429358436</v>
       </c>
     </row>
     <row r="46">
@@ -7804,19 +7804,19 @@
         <v>39.27759168374285</v>
       </c>
       <c r="J46" t="n">
-        <v>43.16043779684566</v>
+        <v>39.27759168374285</v>
       </c>
       <c r="K46" t="n">
-        <v>46.63873217847573</v>
+        <v>42.75588606537292</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6161860550824</v>
+        <v>102.7333399419796</v>
       </c>
       <c r="M46" t="n">
-        <v>180.2431248029078</v>
+        <v>176.3602786898049</v>
       </c>
       <c r="N46" t="n">
-        <v>257.5539959334626</v>
+        <v>253.6711498203598</v>
       </c>
       <c r="O46" t="n">
         <v>312.9468030351321</v>
@@ -7988,13 +7988,13 @@
         <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0112893083342</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8143,10 +8143,10 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O4" t="n">
         <v>145.3325841935542</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.6880767567238</v>
+        <v>226.9658967866919</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>242.6424607116986</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383024</v>
+        <v>236.2891093383022</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>236.6964371334299</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>145.4304255215855</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>149.4722901861559</v>
+        <v>149.4722901861558</v>
       </c>
       <c r="P6" t="n">
-        <v>140.5726331260735</v>
+        <v>140.5726331260734</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.8578198277328</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929815</v>
       </c>
       <c r="M7" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893164</v>
       </c>
       <c r="N7" t="n">
-        <v>134.5615902069446</v>
+        <v>134.5615902069445</v>
       </c>
       <c r="O7" t="n">
-        <v>145.3325841935542</v>
+        <v>145.3325841935541</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8468,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>245.9174408455507</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8769,22 +8769,22 @@
         <v>101.8289284410384</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>95.09759037991321</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>453.4973967414923</v>
+        <v>453.4973967414924</v>
       </c>
       <c r="N12" t="n">
-        <v>440.9299344921027</v>
+        <v>440.9299344921028</v>
       </c>
       <c r="O12" t="n">
-        <v>258.1800596228319</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>83.42760348937762</v>
+        <v>117.1129904681456</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>81.08000042609635</v>
       </c>
       <c r="M15" t="n">
-        <v>453.4973967414923</v>
+        <v>453.4973967414924</v>
       </c>
       <c r="N15" t="n">
-        <v>70.21250968764565</v>
+        <v>440.9299344921028</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>237.5056887128432</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8289284410384</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>128.7829773586809</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4973967414923</v>
+        <v>453.4973967414924</v>
       </c>
       <c r="N18" t="n">
-        <v>440.9299344921027</v>
+        <v>440.9299344921028</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>79.61649175674853</v>
       </c>
       <c r="P18" t="n">
-        <v>83.42760348937762</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>129.3435835520028</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>124.7565619761617</v>
       </c>
       <c r="K21" t="n">
-        <v>95.09759037991321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>81.08000042609635</v>
       </c>
       <c r="M21" t="n">
         <v>453.4973967414923</v>
       </c>
       <c r="N21" t="n">
-        <v>440.9299344921027</v>
+        <v>440.9299344921028</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>92.850883568775</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>106.1925742736319</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.8289284410384</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>453.4973967414923</v>
+        <v>453.4973967414924</v>
       </c>
       <c r="N24" t="n">
-        <v>149.8351162504923</v>
+        <v>70.21250968764588</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.1925742736319</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>264.4652370125787</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404092</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.342374343554</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.426691773423613</v>
+        <v>8.426691773423727</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252.1229555799665</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>234.6620056874935</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>224.072155537169</v>
       </c>
       <c r="E11" t="n">
-        <v>251.3194839887477</v>
+        <v>251.3194839887478</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>195.0347949647155</v>
       </c>
       <c r="G11" t="n">
-        <v>284.1971217109846</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>60.79193593205909</v>
+        <v>60.79193593205918</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.13552999373051</v>
+        <v>67.1355299937306</v>
       </c>
       <c r="T11" t="n">
-        <v>90.31928412853166</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.6951884466715</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.630082633899</v>
       </c>
       <c r="X11" t="n">
-        <v>146.0295358421677</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.6270525725396</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>234.6620056874935</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>224.0721555371688</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>251.3194839887477</v>
       </c>
       <c r="F14" t="n">
-        <v>276.2651596581974</v>
+        <v>276.2651596581973</v>
       </c>
       <c r="G14" t="n">
-        <v>17.34508520130817</v>
+        <v>175.4967358262415</v>
       </c>
       <c r="H14" t="n">
         <v>203.7972652807861</v>
       </c>
       <c r="I14" t="n">
-        <v>60.79193593205912</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.13552999373054</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>90.31928412853169</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>120.6951884466715</v>
       </c>
       <c r="V14" t="n">
-        <v>197.1413723866208</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>239.120214594955</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>255.6270525725395</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.826450433232822e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731553.5443021925</v>
+        <v>731553.5443021926</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731553.5443021926</v>
+        <v>731553.5443021925</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663498.5983924677</v>
+        <v>663498.5983924676</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758843.1798091846</v>
+        <v>758843.1798091847</v>
       </c>
       <c r="C2" t="n">
-        <v>758843.1798091851</v>
+        <v>758843.1798091849</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244618</v>
       </c>
       <c r="E2" t="n">
-        <v>648483.1230927802</v>
+        <v>648483.1230927795</v>
       </c>
       <c r="F2" t="n">
-        <v>648483.1230927799</v>
+        <v>648483.1230927795</v>
       </c>
       <c r="G2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="H2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="J2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="K2" t="n">
         <v>759463.6371244628</v>
@@ -26344,16 +26344,16 @@
         <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.6371244615</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244619</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.6371244617</v>
-      </c>
       <c r="O2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244618</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2617.583265578577</v>
+        <v>2617.583265578612</v>
       </c>
       <c r="E3" t="n">
-        <v>311781.4930698846</v>
+        <v>311781.4930698845</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>85935.08608373551</v>
+        <v>85935.08608373543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117789.9687777056</v>
+        <v>117789.9687777055</v>
       </c>
       <c r="K3" t="n">
         <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>87679.20904023162</v>
+        <v>87679.20904023154</v>
       </c>
       <c r="M3" t="n">
-        <v>83343.38525828402</v>
+        <v>83343.38525828422</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34391.66640178648</v>
+        <v>34391.66640178639</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>396930.013835838</v>
       </c>
       <c r="E4" t="n">
+        <v>250694.1959290542</v>
+      </c>
+      <c r="F4" t="n">
         <v>250694.1959290543</v>
       </c>
-      <c r="F4" t="n">
-        <v>250694.1959290542</v>
-      </c>
       <c r="G4" t="n">
-        <v>318932.5405380971</v>
+        <v>318932.540538097</v>
       </c>
       <c r="H4" t="n">
         <v>318932.540538097</v>
@@ -26445,7 +26445,7 @@
         <v>314524.8585314192</v>
       </c>
       <c r="L4" t="n">
-        <v>314482.4701053266</v>
+        <v>314482.4701053265</v>
       </c>
       <c r="M4" t="n">
         <v>313572.3781551482</v>
@@ -26470,7 +26470,7 @@
         <v>34045.66358109605</v>
       </c>
       <c r="C5" t="n">
-        <v>34045.66358109605</v>
+        <v>34045.66358109604</v>
       </c>
       <c r="D5" t="n">
         <v>34558.00644092021</v>
@@ -26479,16 +26479,16 @@
         <v>36671.86393488244</v>
       </c>
       <c r="F5" t="n">
-        <v>36671.86393488244</v>
+        <v>36671.86393488245</v>
       </c>
       <c r="G5" t="n">
         <v>45702.45987484939</v>
       </c>
       <c r="H5" t="n">
-        <v>45702.45987484938</v>
+        <v>45702.45987484939</v>
       </c>
       <c r="I5" t="n">
-        <v>45702.45987484938</v>
+        <v>45702.45987484939</v>
       </c>
       <c r="J5" t="n">
         <v>57297.99304392905</v>
@@ -26497,7 +26497,7 @@
         <v>57297.99304392905</v>
       </c>
       <c r="L5" t="n">
-        <v>56968.93352514199</v>
+        <v>56968.93352514198</v>
       </c>
       <c r="M5" t="n">
         <v>49609.82749832432</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324446.0603879141</v>
+        <v>324444.3834762513</v>
       </c>
       <c r="C6" t="n">
-        <v>326750.3814650141</v>
+        <v>326748.704553351</v>
       </c>
       <c r="D6" t="n">
         <v>325358.033582125</v>
       </c>
       <c r="E6" t="n">
-        <v>49335.57015895894</v>
+        <v>49035.62282373761</v>
       </c>
       <c r="F6" t="n">
-        <v>361117.0632288432</v>
+        <v>360817.1158936219</v>
       </c>
       <c r="G6" t="n">
-        <v>308893.5506277794</v>
+        <v>308893.55062778</v>
       </c>
       <c r="H6" t="n">
-        <v>394828.6367115157</v>
+        <v>394828.6367115154</v>
       </c>
       <c r="I6" t="n">
-        <v>394828.6367115154</v>
+        <v>394828.6367115153</v>
       </c>
       <c r="J6" t="n">
-        <v>269850.8167714088</v>
+        <v>269850.8167714092</v>
       </c>
       <c r="K6" t="n">
         <v>387640.7855491145</v>
       </c>
       <c r="L6" t="n">
-        <v>300333.0244537611</v>
+        <v>300333.0244537612</v>
       </c>
       <c r="M6" t="n">
-        <v>312938.0462127053</v>
+        <v>312938.0462127046</v>
       </c>
       <c r="N6" t="n">
-        <v>396281.4314709891</v>
+        <v>396281.4314709894</v>
       </c>
       <c r="O6" t="n">
-        <v>361889.7650692026</v>
+        <v>361889.765069203</v>
       </c>
       <c r="P6" t="n">
-        <v>396281.4314709894</v>
+        <v>396281.4314709892</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="F2" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="G2" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="H2" t="n">
         <v>238.0297436881834</v>
@@ -26707,13 +26707,13 @@
         <v>238.0297436881834</v>
       </c>
       <c r="J2" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="K2" t="n">
         <v>150.4084406069023</v>
       </c>
       <c r="L2" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="M2" t="n">
         <v>203.1196068241446</v>
@@ -26790,25 +26790,25 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>378.4332526339926</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="F4" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="G4" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="H4" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="I4" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="J4" t="n">
         <v>690.3044450323459</v>
@@ -26817,7 +26817,7 @@
         <v>690.3044450323461</v>
       </c>
       <c r="L4" t="n">
-        <v>681.8777532589224</v>
+        <v>681.8777532589223</v>
       </c>
       <c r="M4" t="n">
         <v>490.9698960467855</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>107.4188576046694</v>
+        <v>107.4188576046693</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.98958300223305</v>
+        <v>42.98958300223296</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5990113002895</v>
+        <v>109.5990113002894</v>
       </c>
       <c r="M2" t="n">
-        <v>50.53101252162202</v>
+        <v>50.53101252162219</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.9895830022331</v>
+        <v>42.98958300223299</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.426691773423613</v>
+        <v>8.426691773423727</v>
       </c>
       <c r="E4" t="n">
-        <v>363.1305151188575</v>
+        <v>363.1305151188576</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.7472381400648</v>
+        <v>318.7472381400647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.2226579067207</v>
+        <v>172.2226579067209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>107.4188576046694</v>
+        <v>107.4188576046693</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.98958300223305</v>
+        <v>42.98958300223296</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.426691773423613</v>
+        <v>8.426691773423727</v>
       </c>
       <c r="M4" t="n">
-        <v>363.1305151188575</v>
+        <v>363.1305151188576</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>244.4696071661251</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>142.1352358015972</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>83.34021176211564</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7755590926379</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,22 +27588,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>282.984049002298</v>
       </c>
       <c r="V4" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>204.4194684811067</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27667,13 +27667,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>216.21980382242</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.3618929143421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516726</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>93.28178841093181</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621265</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>194.1083076055223</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.3728660142628</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569165</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.1149336167473</v>
+        <v>164.6559990042659</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>149.3940538379589</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998306</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147796</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.1312362018611</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.670286309388</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27907,19 +27907,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>236.0429153927014</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>333.938231202278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>186.6860774914907</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>219.3219359460943</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28056,13 +28056,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>212.6428519131464</v>
+        <v>214.4669382249506</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="C11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="D11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="E11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="F11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="G11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="H11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="I11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.7920521272268</v>
       </c>
       <c r="S11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="T11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="U11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="V11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="W11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="X11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="Y11" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="C12" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>130.610886083514</v>
       </c>
       <c r="E12" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="F12" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="G12" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="H12" t="n">
-        <v>10.38738321833154</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I12" t="n">
         <v>80.28292963098974</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>130.610886083514</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>115.0422887343028</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="C13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="D13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="E13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="F13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="G13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="H13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="I13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="J13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="K13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="L13" t="n">
-        <v>14.12894932353799</v>
+        <v>130.610886083514</v>
       </c>
       <c r="M13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="N13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="O13" t="n">
-        <v>130.6108860835141</v>
+        <v>14.12894932353979</v>
       </c>
       <c r="P13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="R13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="S13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="T13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="U13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="V13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="W13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="X13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.6108860835141</v>
+        <v>130.610886083514</v>
       </c>
     </row>
     <row r="14">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.38738321833185</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="C15" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="D15" t="n">
+        <v>115.0422887343021</v>
+      </c>
+      <c r="E15" t="n">
         <v>130.6108860835141</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>130.6108860835141</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I15" t="n">
         <v>80.28292963098974</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="T15" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="W15" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28515,10 +28515,10 @@
         <v>130.6108860835141</v>
       </c>
       <c r="M16" t="n">
+        <v>77.16045887460892</v>
+      </c>
+      <c r="N16" t="n">
         <v>130.6108860835141</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14.12894932353878</v>
       </c>
       <c r="O16" t="n">
         <v>130.6108860835141</v>
@@ -28527,7 +28527,7 @@
         <v>130.6108860835141</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.6108860835141</v>
+        <v>67.57937653244244</v>
       </c>
       <c r="R16" t="n">
         <v>130.6108860835141</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="C17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="D17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="E17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="F17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="G17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="H17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="I17" t="n">
         <v>191.4028220155732</v>
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>220.9301702120457</v>
       </c>
       <c r="U17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="V17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="W17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="X17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="Y17" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I18" t="n">
         <v>80.28292963098974</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S18" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>53.09580813586646</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.0297436881835</v>
+        <v>131.1203801771273</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28776,13 +28776,13 @@
         <v>226.9973912567422</v>
       </c>
       <c r="U19" t="n">
-        <v>58.18091808389988</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="V19" t="n">
-        <v>238.0297436881835</v>
+        <v>58.18091808390002</v>
       </c>
       <c r="W19" t="n">
-        <v>238.0297436881835</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>91.81079800297294</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I21" t="n">
         <v>80.28292963098974</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28937,16 +28937,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>181.3562989883069</v>
       </c>
       <c r="W21" t="n">
-        <v>238.0297436881834</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>167.298273281561</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29004,7 +29004,7 @@
         <v>67.57937653244244</v>
       </c>
       <c r="R22" t="n">
-        <v>167.3151187039071</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>220.1491599628428</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.73582774781141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>103.3997498135912</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S24" t="n">
-        <v>98.5610287925883</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9239673614453</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29250,13 +29250,13 @@
         <v>226.9973912567422</v>
       </c>
       <c r="U25" t="n">
-        <v>238.0297436881834</v>
+        <v>58.18091808390005</v>
       </c>
       <c r="V25" t="n">
         <v>238.0297436881834</v>
       </c>
       <c r="W25" t="n">
-        <v>58.1809180839</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="C26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="D26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="E26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="F26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="G26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="H26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="I26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="J26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="K26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="L26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="M26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="N26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="O26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="P26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="R26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="S26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="T26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="U26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="V26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="W26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="X26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29366,10 +29366,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I27" t="n">
         <v>80.28292963098974</v>
@@ -29405,22 +29405,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>150.4084406069023</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>150.4084406069023</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.4084406069023</v>
+        <v>7.245525357728354</v>
       </c>
       <c r="Y27" t="n">
-        <v>103.5948615867583</v>
+        <v>150.4084406069024</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="C28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="H28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7767737539562</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="J28" t="n">
-        <v>77.66952654207475</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="K28" t="n">
-        <v>150.4084406069023</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>3.830484547365252</v>
       </c>
       <c r="P28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.95590359813362</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="R28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="S28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="T28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="U28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="V28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="W28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="X28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4084406069023</v>
+        <v>150.4084406069024</v>
       </c>
     </row>
     <row r="29">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>9.621378528983257</v>
       </c>
       <c r="C30" t="n">
-        <v>57.63798089980111</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29600,10 +29600,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H30" t="n">
         <v>109.6789634095695</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>150.4084406069023</v>
@@ -29645,16 +29645,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>150.4084406069023</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>150.4084406069023</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.4084406069023</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.4084406069023</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.4084406069023</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.4084406069023</v>
       </c>
       <c r="G31" t="n">
         <v>150.4084406069023</v>
@@ -29691,28 +29691,28 @@
         <v>150.4084406069023</v>
       </c>
       <c r="J31" t="n">
+        <v>77.66952654207475</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.990022079751263</v>
+      </c>
+      <c r="L31" t="n">
         <v>150.4084406069023</v>
       </c>
-      <c r="K31" t="n">
-        <v>14.58532268035984</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
-        <v>150.4084406069023</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>150.4084406069023</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.4084406069023</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.4084406069023</v>
+        <v>67.57937653244244</v>
       </c>
       <c r="R31" t="n">
         <v>150.4084406069023</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="C32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="D32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="E32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="F32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="G32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="H32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="I32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="K32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="L32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="M32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="N32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="O32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="P32" t="n">
-        <v>99.60091634313329</v>
+        <v>99.60091634313284</v>
       </c>
       <c r="Q32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="R32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="S32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="T32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="U32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="V32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="W32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="X32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="Y32" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
     </row>
     <row r="33">
@@ -29828,19 +29828,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>152.5885943025225</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.88521796648817</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H33" t="n">
         <v>109.6789634095695</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>152.5885943025225</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>51.09751981294067</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
     </row>
     <row r="34">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="C34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="F34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="G34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="H34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="I34" t="n">
         <v>148.7767737539562</v>
@@ -29931,19 +29931,19 @@
         <v>77.66952654207475</v>
       </c>
       <c r="K34" t="n">
-        <v>133.5640782427155</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="L34" t="n">
-        <v>152.5885943025225</v>
+        <v>123.4363253024525</v>
       </c>
       <c r="M34" t="n">
-        <v>152.5885943025225</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>67.57937653244244</v>
       </c>
       <c r="R34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="T34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="U34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="V34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="W34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="X34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
       <c r="Y34" t="n">
-        <v>152.5885943025225</v>
+        <v>152.5885943025224</v>
       </c>
     </row>
     <row r="35">
@@ -30004,10 +30004,10 @@
         <v>203.1196068241446</v>
       </c>
       <c r="I35" t="n">
-        <v>191.4028220155732</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>149.4219339574493</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30019,16 +30019,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>194.7601743539474</v>
       </c>
       <c r="O35" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.7792862958238</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>203.1196068241446</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I36" t="n">
-        <v>43.0093660149208</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S36" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>60.18209325089398</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>167.7690606374602</v>
       </c>
       <c r="H37" t="n">
-        <v>164.1761801143825</v>
+        <v>160.2541133334706</v>
       </c>
       <c r="I37" t="n">
         <v>148.7767737539562</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.922066780911528</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30247,16 +30247,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>158.1524770427239</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>39.36042491549716</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>203.1196068241446</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7920521272268</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="S38" t="n">
         <v>197.7464160772446</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6789634095695</v>
       </c>
       <c r="I39" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>27.61749002244551</v>
+        <v>188.3250885218081</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.922066780911962</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>67.57937653244244</v>
       </c>
       <c r="R40" t="n">
-        <v>167.3151187039071</v>
+        <v>171.237185484819</v>
       </c>
       <c r="S40" t="n">
         <v>203.1196068241446</v>
@@ -30478,7 +30478,7 @@
         <v>203.1196068241446</v>
       </c>
       <c r="I41" t="n">
-        <v>191.4028220155732</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J41" t="n">
         <v>203.1196068241446</v>
@@ -30490,13 +30490,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>39.3604249154975</v>
+        <v>184.932385722539</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7920521272268</v>
+        <v>164.6229133357583</v>
       </c>
       <c r="S41" t="n">
         <v>197.7464160772446</v>
@@ -30542,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>109.6789634095695</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.72298284202644</v>
       </c>
       <c r="S42" t="n">
-        <v>155.7713591548732</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.1196068241446</v>
+        <v>17.91862332522339</v>
       </c>
     </row>
     <row r="43">
@@ -30630,13 +30630,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>171.6911274183717</v>
+        <v>167.7690606374602</v>
       </c>
       <c r="H43" t="n">
         <v>160.2541133334706</v>
       </c>
       <c r="I43" t="n">
-        <v>148.7767737539562</v>
+        <v>152.6988405348677</v>
       </c>
       <c r="J43" t="n">
         <v>77.66952654207475</v>
@@ -30721,31 +30721,31 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>57.54764601710264</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>184.932385722539</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>203.1196068241446</v>
       </c>
-      <c r="L44" t="n">
-        <v>152.779286295824</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>203.1196068241446</v>
+        <v>118.7920521272268</v>
       </c>
       <c r="S44" t="n">
-        <v>203.1196068241446</v>
+        <v>197.7464160772446</v>
       </c>
       <c r="T44" t="n">
         <v>203.1196068241446</v>
@@ -30776,19 +30776,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>84.37653271834989</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6789634095695</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.72298284202644</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>54.00677791244536</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.1196068241446</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.7767737539562</v>
       </c>
       <c r="J46" t="n">
-        <v>81.59159332298668</v>
+        <v>77.66952654207475</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.922066780911955</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.598225711743297</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O4" t="n">
         <v>6.876045741711437</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="L5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.598225711743189</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="P6" t="n">
-        <v>6.598225711743297</v>
+        <v>6.598225711743189</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743189</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.04027727224657</v>
+        <v>30.04027727224685</v>
       </c>
       <c r="K11" t="n">
         <v>166.9870372275798</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.3676466326654</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>289.7603448773629</v>
       </c>
       <c r="M12" t="n">
-        <v>378.4332526339926</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="N12" t="n">
-        <v>378.4332526339926</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="O12" t="n">
-        <v>178.5635678660833</v>
+        <v>314.245827519981</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>33.68538697876797</v>
       </c>
       <c r="Q12" t="n">
         <v>103.8847134622172</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.94135954143934</v>
+        <v>52.94135954143925</v>
       </c>
       <c r="K13" t="n">
-        <v>134.1243147518273</v>
+        <v>134.1243147518272</v>
       </c>
       <c r="L13" t="n">
-        <v>74.71223606758515</v>
+        <v>191.1941728275612</v>
       </c>
       <c r="M13" t="n">
-        <v>204.9815312833377</v>
+        <v>204.9815312833376</v>
       </c>
       <c r="N13" t="n">
         <v>208.7026751042765</v>
       </c>
       <c r="O13" t="n">
-        <v>186.5632164892408</v>
+        <v>70.08127972926651</v>
       </c>
       <c r="P13" t="n">
-        <v>154.729505931724</v>
+        <v>154.7295059317239</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.03150955107166</v>
+        <v>63.03150955107157</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>169.3676466326654</v>
       </c>
       <c r="L15" t="n">
-        <v>289.7603448773629</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="N15" t="n">
-        <v>7.715827829535482</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="O15" t="n">
         <v>314.245827519981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.0351651505595</v>
+        <v>154.0780852234656</v>
       </c>
       <c r="Q15" t="n">
         <v>103.8847134622172</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.94135954143931</v>
+        <v>52.94135954143937</v>
       </c>
       <c r="K16" t="n">
         <v>134.1243147518273</v>
       </c>
       <c r="L16" t="n">
-        <v>191.1941728275612</v>
+        <v>191.1941728275613</v>
       </c>
       <c r="M16" t="n">
-        <v>204.9815312833376</v>
+        <v>151.5311040744325</v>
       </c>
       <c r="N16" t="n">
-        <v>92.22073834430122</v>
+        <v>208.7026751042766</v>
       </c>
       <c r="O16" t="n">
-        <v>186.5632164892408</v>
+        <v>186.5632164892409</v>
       </c>
       <c r="P16" t="n">
         <v>154.729505931724</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.03150955107163</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>30.04027727224657</v>
       </c>
       <c r="K17" t="n">
-        <v>166.9870372275798</v>
+        <v>166.9870372275801</v>
       </c>
       <c r="L17" t="n">
         <v>259.9668599697834</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.26210689937043</v>
       </c>
       <c r="K18" t="n">
-        <v>33.68538697876772</v>
+        <v>169.3676466326654</v>
       </c>
       <c r="L18" t="n">
         <v>289.7603448773629</v>
       </c>
       <c r="M18" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="N18" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="O18" t="n">
-        <v>314.245827519981</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.0351651505595</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.8847134622172</v>
+        <v>23.15100927837097</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>166.9870372275798</v>
       </c>
       <c r="L20" t="n">
-        <v>259.9668599697834</v>
+        <v>259.9668599697837</v>
       </c>
       <c r="M20" t="n">
         <v>306.0375103242466</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.26210689937043</v>
+        <v>22.9276335351233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.3676466326654</v>
       </c>
       <c r="L21" t="n">
-        <v>289.7603448773629</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="N21" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="O21" t="n">
         <v>314.245827519981</v>
       </c>
       <c r="P21" t="n">
-        <v>9.423280079397385</v>
+        <v>235.0351651505595</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.8847134622172</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>296.2097216928381</v>
       </c>
       <c r="O23" t="n">
-        <v>234.0583620589258</v>
+        <v>234.0583620589263</v>
       </c>
       <c r="P23" t="n">
         <v>161.7084646558704</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.26210689937043</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>169.3676466326654</v>
@@ -36443,10 +36443,10 @@
         <v>289.7603448773629</v>
       </c>
       <c r="M24" t="n">
-        <v>378.4332526339925</v>
+        <v>378.4332526339927</v>
       </c>
       <c r="N24" t="n">
-        <v>87.33843439238217</v>
+        <v>7.715827829535712</v>
       </c>
       <c r="O24" t="n">
         <v>314.245827519981</v>
@@ -36455,7 +36455,7 @@
         <v>235.0351651505595</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.8847134622172</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>180.4487178791489</v>
       </c>
       <c r="K26" t="n">
-        <v>317.3954778344821</v>
+        <v>317.3954778344822</v>
       </c>
       <c r="L26" t="n">
         <v>410.3753005766857</v>
@@ -36613,10 +36613,10 @@
         <v>312.1169052627728</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.8429855117257</v>
+        <v>193.8429855117258</v>
       </c>
       <c r="R26" t="n">
-        <v>31.61638847967552</v>
+        <v>31.61638847967555</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.792967588690004</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.974477960333189</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.987392583971115</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.631666852946157</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.73891406482761</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9218692752155</v>
+        <v>3.513428668313207</v>
       </c>
       <c r="L28" t="n">
         <v>60.58328674404716</v>
@@ -36765,13 +36765,13 @@
         <v>228.5002296276648</v>
       </c>
       <c r="O28" t="n">
-        <v>55.95233040572673</v>
+        <v>59.78281495309198</v>
       </c>
       <c r="P28" t="n">
         <v>174.5270604551123</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.37652706569118</v>
+        <v>82.82906407445992</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>410.3753005766857</v>
       </c>
       <c r="M29" t="n">
-        <v>456.4459509311489</v>
+        <v>456.4459509311488</v>
       </c>
       <c r="N29" t="n">
-        <v>446.6181622997404</v>
+        <v>446.6181622997403</v>
       </c>
       <c r="O29" t="n">
         <v>384.4668026658281</v>
@@ -36853,7 +36853,7 @@
         <v>193.8429855117257</v>
       </c>
       <c r="R29" t="n">
-        <v>31.61638847967552</v>
+        <v>31.61638847967549</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.792967588689947</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.974477960333132</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.987392583971058</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.631666852946129</v>
+        <v>1.6316668529461</v>
       </c>
       <c r="J31" t="n">
-        <v>72.73891406482758</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>18.09875134867305</v>
+        <v>12.50345074806447</v>
       </c>
       <c r="L31" t="n">
-        <v>60.58328674404716</v>
+        <v>210.9917273509495</v>
       </c>
       <c r="M31" t="n">
-        <v>224.7790858067259</v>
+        <v>74.37064519982358</v>
       </c>
       <c r="N31" t="n">
-        <v>228.5002296276648</v>
+        <v>228.5002296276647</v>
       </c>
       <c r="O31" t="n">
-        <v>55.95233040572673</v>
+        <v>206.360771012629</v>
       </c>
       <c r="P31" t="n">
         <v>24.11861984820994</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.82906407445989</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6288715747691</v>
+        <v>182.628871574769</v>
       </c>
       <c r="K32" t="n">
         <v>319.5756315301022</v>
@@ -37084,13 +37084,13 @@
         <v>386.6469563614482</v>
       </c>
       <c r="P32" t="n">
-        <v>261.3093809990037</v>
+        <v>261.3093809990033</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.0231392073459</v>
+        <v>196.0231392073458</v>
       </c>
       <c r="R32" t="n">
-        <v>33.79654217529566</v>
+        <v>33.79654217529563</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.973121284310082</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.154631655953267</v>
       </c>
       <c r="F34" t="n">
-        <v>7.167546279591221</v>
+        <v>7.167546279591193</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>137.0775069110287</v>
+        <v>156.1020229708356</v>
       </c>
       <c r="L34" t="n">
-        <v>213.1718810465696</v>
+        <v>184.0196120464997</v>
       </c>
       <c r="M34" t="n">
-        <v>226.9592395023461</v>
+        <v>74.37064519982358</v>
       </c>
       <c r="N34" t="n">
         <v>78.09178902076245</v>
       </c>
       <c r="O34" t="n">
-        <v>55.95233040572673</v>
+        <v>208.5409247082492</v>
       </c>
       <c r="P34" t="n">
         <v>24.11861984820994</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.71678480857145</v>
       </c>
       <c r="J35" t="n">
-        <v>30.04027727224657</v>
+        <v>179.4622112296959</v>
       </c>
       <c r="K35" t="n">
         <v>166.9870372275798</v>
@@ -37315,22 +37315,22 @@
         <v>306.0375103242466</v>
       </c>
       <c r="N35" t="n">
-        <v>296.2097216928381</v>
+        <v>490.9698960467855</v>
       </c>
       <c r="O35" t="n">
-        <v>437.1779688830704</v>
+        <v>234.0583620589258</v>
       </c>
       <c r="P35" t="n">
         <v>161.7084646558704</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.2138312006472</v>
+        <v>43.43454490482341</v>
       </c>
       <c r="R35" t="n">
-        <v>84.32755469691776</v>
+        <v>84.32755469691782</v>
       </c>
       <c r="S35" t="n">
-        <v>5.373190746899967</v>
+        <v>5.373190746900024</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>24.26210689937043</v>
       </c>
       <c r="K36" t="n">
-        <v>169.3676466326654</v>
+        <v>169.3676466326655</v>
       </c>
       <c r="L36" t="n">
         <v>289.7603448773629</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.922066780911927</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>3.513428668313207</v>
       </c>
       <c r="L37" t="n">
-        <v>60.58328674404716</v>
+        <v>64.50535352495869</v>
       </c>
       <c r="M37" t="n">
         <v>74.37064519982358</v>
@@ -37543,16 +37543,16 @@
         <v>30.04027727224657</v>
       </c>
       <c r="K38" t="n">
-        <v>370.1066440517244</v>
+        <v>166.9870372275798</v>
       </c>
       <c r="L38" t="n">
-        <v>259.9668599697834</v>
+        <v>418.1193370125073</v>
       </c>
       <c r="M38" t="n">
         <v>306.0375103242466</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5701466083352</v>
+        <v>296.2097216928381</v>
       </c>
       <c r="O38" t="n">
         <v>234.0583620589258</v>
@@ -37564,7 +37564,7 @@
         <v>246.554151728968</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.32755469691779</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>416.8456924854434</v>
       </c>
       <c r="O39" t="n">
-        <v>314.2458275199814</v>
+        <v>314.245827519981</v>
       </c>
       <c r="P39" t="n">
         <v>235.0351651505595</v>
@@ -37710,7 +37710,7 @@
         <v>74.37064519982358</v>
       </c>
       <c r="N40" t="n">
-        <v>82.01385580167441</v>
+        <v>78.09178902076245</v>
       </c>
       <c r="O40" t="n">
         <v>55.95233040572673</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.922066780911862</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.71678480857145</v>
       </c>
       <c r="J41" t="n">
         <v>233.1598840963912</v>
@@ -37786,13 +37786,13 @@
         <v>259.9668599697834</v>
       </c>
       <c r="M41" t="n">
-        <v>345.3979352397441</v>
+        <v>490.9698960467855</v>
       </c>
       <c r="N41" t="n">
         <v>296.2097216928381</v>
       </c>
       <c r="O41" t="n">
-        <v>437.1779688830704</v>
+        <v>234.0583620589258</v>
       </c>
       <c r="P41" t="n">
         <v>161.7084646558704</v>
@@ -37801,7 +37801,7 @@
         <v>43.43454490482341</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>45.83086120853153</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37926,13 +37926,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.922066780911525</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>30.04027727224657</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1066440517244</v>
+        <v>224.5346832446824</v>
       </c>
       <c r="L44" t="n">
-        <v>412.7461462656074</v>
+        <v>259.9668599697834</v>
       </c>
       <c r="M44" t="n">
-        <v>306.0375103242466</v>
+        <v>490.9698960467855</v>
       </c>
       <c r="N44" t="n">
         <v>296.2097216928381</v>
@@ -38032,16 +38032,16 @@
         <v>234.0583620589258</v>
       </c>
       <c r="P44" t="n">
-        <v>161.7084646558704</v>
+        <v>364.828071480015</v>
       </c>
       <c r="Q44" t="n">
         <v>43.43454490482341</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32755469691776</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.373190746899967</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.26210689937043</v>
+        <v>24.26210689937076</v>
       </c>
       <c r="K45" t="n">
         <v>169.3676466326654</v>
@@ -38105,7 +38105,7 @@
         <v>390.6409196425002</v>
       </c>
       <c r="N45" t="n">
-        <v>416.8456924854438</v>
+        <v>416.8456924854434</v>
       </c>
       <c r="O45" t="n">
         <v>314.245827519981</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.922066780911927</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>3.513428668313207</v>
@@ -38187,7 +38187,7 @@
         <v>78.09178902076245</v>
       </c>
       <c r="O46" t="n">
-        <v>55.95233040572673</v>
+        <v>59.87439718663868</v>
       </c>
       <c r="P46" t="n">
         <v>24.11861984820994</v>
